--- a/Foodex 2 L4 dashboard.xlsx
+++ b/Foodex 2 L4 dashboard.xlsx
@@ -1,12 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/DS_Projects/epi-map-visual-python/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADA889E-C139-0C44-BA5B-790C5E1A9FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="11715" windowHeight="9120"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Chronic Food Consumption Grams " sheetId="1" r:id="rId3"/>
+    <sheet name="Chronic Food Consumption Grams " sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Chronic Food Consumption Grams '!$B$1:$B$149</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -16,369 +28,365 @@
     <t>Chronic Food Consumption Grams per day (g/day) - All Subjects</t>
   </si>
   <si>
-    <t xml:space="preserve">Survey's country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Survey start year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Survey name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population Group (L2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exposure hierarchy (L1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exposure hierarchy (L2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exposure hierarchy (L3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exposure hierarchy (L4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of subjects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of consumers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standard Deviation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5th percentile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10th percentile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95th percentile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.5th percentile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99th percentile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austrian Study on Nutritional Status 2010-12 - Adults</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adults</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vegetables and vegetable products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processed or preserved vegetables and similar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fermented or pickled vegetables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fermented vegetables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elderly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'Number of observations lower than 180, the 97.5th percentile may not be statistically robust'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Very elderly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'Number of observations lower than 60, the 95th percentile may not be statistically robust'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austrian Study on Nutritional Status 2010-12 - Children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adolescents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'Number of observations lower than 298, the 99th percentile may not be statistically robust'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EU Menu Austria: Food consumption data for Austrian adults</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EU Menu Austria: Food consumption data for Austrian pregnant women</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pregnant women</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EU Menu Austria: Food consumption data for Austrian adolescents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belgium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diet National 2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belgian national food consumption survey in children, adolescents and adults</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bosnia and Herzegovina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bosnia-Herzegovinian Dietary Survey of adolescents, adults and pregnant women</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulgaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUTRICHILD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toddlers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Croatia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Croatian food consumption survey on adults</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Croatian national food consumption survey on children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Croatian national food consumption survey on adolescents and adults from 10 to 99 years of age </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Czechia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Czech National Food Consumption Survey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Dietary Survey among 11-74 years old individuals in Estonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Dietary Survey among children up to ten years old and breastfeeding mothers in Estonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lactating women</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Special Turku Coronary Risk Factor Intervention Project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National FINDIET 2012 Survey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FINDIET 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Individual and national study on food consumption 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The French national dietary survey (INCA3, 2014-2015)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consumption Survey of Food Intake among Infants and Young Children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dortmund Nutritional and Anthropometrical Longitudinally Designed (DONALD) Study 2006-2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eating Study as a KiGGS Module (EsKiMo)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Nutrition Survey II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greece</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The EFSA-funded collection of dietary and related data in the general population aged 10-74 years in Greece</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hungary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Repr Surv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hungarian national food consumption survey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latvia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latvian Dietary survey 2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dietary survey on pregnant women in Latvia (LGPPP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latvian National Dietary survey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montenegro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montenegrin National Dietary Survey on the general population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Dietary Survey on Children in Montenegro from 1 to 9 years old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netherlands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dutch National Dietary Survey 2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNFCS-Young-Children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dutch National food consumption survey 2007 - 2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dutch National Food Consumption Surveys - Older Adults</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dutch National Food Consumption Survey 2012-2016 (DNFCS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Dietary Survey on the adult population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Dietary Survey on the adult vegetarian population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vegetarians</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Dietary Survey on the children population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Dietary Survey on the children vegetarian population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Dietary Survey on the pregnant population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portugal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Food, Nutrition and Physical Activity Survey of the Portuguese general population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Republic of North Macedonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National dietary survey on the children population in the Republic of North Macedonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dieta Pilot Adults</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ad-hoc consumption survey for Romanian pregnant women</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ad-hoc consumption survey for Romanian vegetarian adults</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romanian national food consumption survey for adolescents, adults and elderly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serbia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serbian Food Consumption survey on children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serbian Food Consumption Survey on adults</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serbian Food Consumption Survey on vegetarians</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovenian national food consumption survey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swedish National Dietary Survey - RIKSMATEN 1997-98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swedish National Dietary Survey - Riksmaten children 2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swedish National Dietary Survey - Riksmaten adults 2010-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RIKSMATEN ADOLESCENTS 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Diet and Nutrition Survey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Diet and Nutrition Survey - Years 1-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diet and Nutrition Survey of Infants and Young Children, 2011</t>
+    <t>Survey's country</t>
+  </si>
+  <si>
+    <t>Survey start year</t>
+  </si>
+  <si>
+    <t>Survey name</t>
+  </si>
+  <si>
+    <t>Population Group (L2)</t>
+  </si>
+  <si>
+    <t>Exposure hierarchy (L1)</t>
+  </si>
+  <si>
+    <t>Exposure hierarchy (L2)</t>
+  </si>
+  <si>
+    <t>Exposure hierarchy (L3)</t>
+  </si>
+  <si>
+    <t>Exposure hierarchy (L4)</t>
+  </si>
+  <si>
+    <t>Number of subjects</t>
+  </si>
+  <si>
+    <t>Number of consumers</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>5th percentile</t>
+  </si>
+  <si>
+    <t>10th percentile</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>95th percentile</t>
+  </si>
+  <si>
+    <t>97.5th percentile</t>
+  </si>
+  <si>
+    <t>99th percentile</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Austrian Study on Nutritional Status 2010-12 - Adults</t>
+  </si>
+  <si>
+    <t>Adults</t>
+  </si>
+  <si>
+    <t>Vegetables and vegetable products</t>
+  </si>
+  <si>
+    <t>Processed or preserved vegetables and similar</t>
+  </si>
+  <si>
+    <t>Fermented or pickled vegetables</t>
+  </si>
+  <si>
+    <t>Fermented vegetables</t>
+  </si>
+  <si>
+    <t>Elderly</t>
+  </si>
+  <si>
+    <t>'Number of observations lower than 180, the 97.5th percentile may not be statistically robust'</t>
+  </si>
+  <si>
+    <t>Very elderly</t>
+  </si>
+  <si>
+    <t>'Number of observations lower than 60, the 95th percentile may not be statistically robust'</t>
+  </si>
+  <si>
+    <t>Austrian Study on Nutritional Status 2010-12 - Children</t>
+  </si>
+  <si>
+    <t>Adolescents</t>
+  </si>
+  <si>
+    <t>'Number of observations lower than 298, the 99th percentile may not be statistically robust'</t>
+  </si>
+  <si>
+    <t>Other children</t>
+  </si>
+  <si>
+    <t>EU Menu Austria: Food consumption data for Austrian adults</t>
+  </si>
+  <si>
+    <t>EU Menu Austria: Food consumption data for Austrian pregnant women</t>
+  </si>
+  <si>
+    <t>Pregnant women</t>
+  </si>
+  <si>
+    <t>EU Menu Austria: Food consumption data for Austrian adolescents</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Diet National 2004</t>
+  </si>
+  <si>
+    <t>Belgian national food consumption survey in children, adolescents and adults</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Bosnia-Herzegovinian Dietary Survey of adolescents, adults and pregnant women</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>NUTRICHILD</t>
+  </si>
+  <si>
+    <t>Toddlers</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Croatian food consumption survey on adults</t>
+  </si>
+  <si>
+    <t>Croatian national food consumption survey on children</t>
+  </si>
+  <si>
+    <t>Croatian national food consumption survey on adolescents and adults from 10 to 99 years of age </t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Czech National Food Consumption Survey</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>National Dietary Survey among 11-74 years old individuals in Estonia</t>
+  </si>
+  <si>
+    <t>National Dietary Survey among children up to ten years old and breastfeeding mothers in Estonia</t>
+  </si>
+  <si>
+    <t>Infants</t>
+  </si>
+  <si>
+    <t>Lactating women</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Special Turku Coronary Risk Factor Intervention Project</t>
+  </si>
+  <si>
+    <t>National FINDIET 2012 Survey</t>
+  </si>
+  <si>
+    <t>FINDIET 2017</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Individual and national study on food consumption 2</t>
+  </si>
+  <si>
+    <t>The French national dietary survey (INCA3, 2014-2015)</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Consumption Survey of Food Intake among Infants and Young Children</t>
+  </si>
+  <si>
+    <t>Dortmund Nutritional and Anthropometrical Longitudinally Designed (DONALD) Study 2006-2008</t>
+  </si>
+  <si>
+    <t>Eating Study as a KiGGS Module (EsKiMo)</t>
+  </si>
+  <si>
+    <t>National Nutrition Survey II</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>The EFSA-funded collection of dietary and related data in the general population aged 10-74 years in Greece</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>National Repr Surv</t>
+  </si>
+  <si>
+    <t>Hungarian national food consumption survey</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Latvian Dietary survey 2008</t>
+  </si>
+  <si>
+    <t>Dietary survey on pregnant women in Latvia (LGPPP)</t>
+  </si>
+  <si>
+    <t>Latvian National Dietary survey</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Montenegrin National Dietary Survey on the general population</t>
+  </si>
+  <si>
+    <t>National Dietary Survey on Children in Montenegro from 1 to 9 years old</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Dutch National Dietary Survey 2003</t>
+  </si>
+  <si>
+    <t>DNFCS-Young-Children</t>
+  </si>
+  <si>
+    <t>Dutch National food consumption survey 2007 - 2010</t>
+  </si>
+  <si>
+    <t>Dutch National Food Consumption Surveys - Older Adults</t>
+  </si>
+  <si>
+    <t>Dutch National Food Consumption Survey 2012-2016 (DNFCS)</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>National Dietary Survey on the adult population</t>
+  </si>
+  <si>
+    <t>National Dietary Survey on the adult vegetarian population</t>
+  </si>
+  <si>
+    <t>Vegetarians</t>
+  </si>
+  <si>
+    <t>National Dietary Survey on the children population</t>
+  </si>
+  <si>
+    <t>National Dietary Survey on the children vegetarian population</t>
+  </si>
+  <si>
+    <t>National Dietary Survey on the pregnant population</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>National Food, Nutrition and Physical Activity Survey of the Portuguese general population</t>
+  </si>
+  <si>
+    <t>Republic of North Macedonia</t>
+  </si>
+  <si>
+    <t>National dietary survey on the children population in the Republic of North Macedonia</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Dieta Pilot Adults</t>
+  </si>
+  <si>
+    <t>Ad-hoc consumption survey for Romanian pregnant women</t>
+  </si>
+  <si>
+    <t>Ad-hoc consumption survey for Romanian vegetarian adults</t>
+  </si>
+  <si>
+    <t>Romanian national food consumption survey for adolescents, adults and elderly</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Serbian Food Consumption survey on children</t>
+  </si>
+  <si>
+    <t>Serbian Food Consumption Survey on adults</t>
+  </si>
+  <si>
+    <t>Serbian Food Consumption Survey on vegetarians</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Slovenian national food consumption survey</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Swedish National Dietary Survey - RIKSMATEN 1997-98</t>
+  </si>
+  <si>
+    <t>Swedish National Dietary Survey - Riksmaten children 2003</t>
+  </si>
+  <si>
+    <t>Swedish National Dietary Survey - Riksmaten adults 2010-11</t>
+  </si>
+  <si>
+    <t>RIKSMATEN ADOLESCENTS 2016</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>National Diet and Nutrition Survey</t>
+  </si>
+  <si>
+    <t>National Diet and Nutrition Survey - Years 1-3</t>
+  </si>
+  <si>
+    <t>Diet and Nutrition Survey of Infants and Young Children, 2011</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="#,##0.00_);(#,##0.00)"/>
-    <numFmt numFmtId="166" formatCode="#,##0_);(#,##0)"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -397,10 +405,11 @@
     </font>
     <font>
       <b/>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color rgb="FFFF6600"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -408,7 +417,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -422,98 +431,408 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left>
-        <color rgb="FFE0E0E0"/>
-      </left>
-      <right>
-        <color rgb="FFE0E0E0"/>
-      </right>
-      <top>
-        <color rgb="FFE0E0E0"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FFABABAB"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
-      <left>
-        <color rgb="FFE0E0E0"/>
-      </left>
-      <right>
-        <color rgb="FFE0E0E0"/>
-      </right>
-      <top>
-        <color rgb="FFE0E0E0"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FFEBEBEB"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="0"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="0"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="0"/>
+    <xf numFmtId="37" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="0"/>
+    <xf numFmtId="39" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="0"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/worksheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:S149"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="9" max="9" width="9.14285714" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.14285714" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.14285714" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.14285714" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.14285714" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.14285714" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.14285714" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.14285714" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.14285714" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.14285714" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="108.14285714" bestFit="1" customWidth="1"/>
+    <col min="9" max="18" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="108.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:19" ht="36" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -572,7 +891,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:19" ht="60" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -604,7 +923,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="6">
-        <v>2.38311688311688</v>
+        <v>2.3831168831168799</v>
       </c>
       <c r="L4" s="6">
         <v>12.6252412764757</v>
@@ -629,7 +948,7 @@
       </c>
       <c r="S4" s="7"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:19" ht="60" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -661,10 +980,10 @@
         <v>4</v>
       </c>
       <c r="K5" s="6">
-        <v>4.04477611940298</v>
+        <v>4.0447761194029797</v>
       </c>
       <c r="L5" s="6">
-        <v>16.2017889358504</v>
+        <v>16.201788935850399</v>
       </c>
       <c r="M5" s="6">
         <v>0</v>
@@ -682,13 +1001,13 @@
         <v>65.5</v>
       </c>
       <c r="R5" s="6">
-        <v>69.9775</v>
+        <v>69.977500000000006</v>
       </c>
       <c r="S5" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:19" ht="60" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -723,7 +1042,7 @@
         <v>7.86</v>
       </c>
       <c r="L6" s="6">
-        <v>21.7238923768279</v>
+        <v>21.723892376827902</v>
       </c>
       <c r="M6" s="6">
         <v>0</v>
@@ -747,7 +1066,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:19" ht="72" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
@@ -779,10 +1098,10 @@
         <v>8</v>
       </c>
       <c r="K7" s="6">
-        <v>1.48523206751055</v>
+        <v>1.4852320675105499</v>
       </c>
       <c r="L7" s="6">
-        <v>8.15367884602803</v>
+        <v>8.1536788460280292</v>
       </c>
       <c r="M7" s="6">
         <v>0</v>
@@ -806,7 +1125,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:19" ht="72" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -838,7 +1157,7 @@
         <v>2</v>
       </c>
       <c r="K8" s="6">
-        <v>0.463541666666667</v>
+        <v>0.46354166666666702</v>
       </c>
       <c r="L8" s="6">
         <v>3.72225445919105</v>
@@ -865,7 +1184,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:19" ht="84" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -900,7 +1219,7 @@
         <v>1.83861504748619</v>
       </c>
       <c r="L9" s="6">
-        <v>11.1479780126566</v>
+        <v>11.147978012656599</v>
       </c>
       <c r="M9" s="6">
         <v>0</v>
@@ -915,14 +1234,14 @@
         <v>0</v>
       </c>
       <c r="Q9" s="6">
-        <v>33.33333587645</v>
+        <v>33.333335876450001</v>
       </c>
       <c r="R9" s="6">
         <v>55.7770093990516</v>
       </c>
       <c r="S9" s="7"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:19" ht="96" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
@@ -954,7 +1273,7 @@
         <v>12</v>
       </c>
       <c r="K10" s="6">
-        <v>2.63995440175197</v>
+        <v>2.6399544017519698</v>
       </c>
       <c r="L10" s="6">
         <v>13.7771495951053</v>
@@ -975,13 +1294,13 @@
         <v>53.5833333333334</v>
       </c>
       <c r="R10" s="6">
-        <v>81.2734948221812</v>
+        <v>81.273494822181206</v>
       </c>
       <c r="S10" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:19" ht="84" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -1013,10 +1332,10 @@
         <v>11</v>
       </c>
       <c r="K11" s="6">
-        <v>0.570608124915679</v>
+        <v>0.57060812491567903</v>
       </c>
       <c r="L11" s="6">
-        <v>4.89170752618884</v>
+        <v>4.8917075261888403</v>
       </c>
       <c r="M11" s="6">
         <v>0</v>
@@ -1034,11 +1353,11 @@
         <v>0</v>
       </c>
       <c r="R11" s="6">
-        <v>22.22222328185</v>
+        <v>22.222223281849999</v>
       </c>
       <c r="S11" s="7"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:19" ht="48" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>39</v>
       </c>
@@ -1070,10 +1389,10 @@
         <v>4</v>
       </c>
       <c r="K12" s="6">
-        <v>0.398871527777778</v>
+        <v>0.39887152777777801</v>
       </c>
       <c r="L12" s="6">
-        <v>5.46577044435848</v>
+        <v>5.4657704443584798</v>
       </c>
       <c r="M12" s="6">
         <v>0</v>
@@ -1095,7 +1414,7 @@
       </c>
       <c r="S12" s="7"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:19" ht="48" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>39</v>
       </c>
@@ -1127,7 +1446,7 @@
         <v>15</v>
       </c>
       <c r="K13" s="6">
-        <v>0.867724458204334</v>
+        <v>0.86772445820433397</v>
       </c>
       <c r="L13" s="6">
         <v>12.1678776140797</v>
@@ -1148,11 +1467,11 @@
         <v>0</v>
       </c>
       <c r="R13" s="6">
-        <v>25.8591999999998</v>
+        <v>25.859199999999799</v>
       </c>
       <c r="S13" s="7"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:19" ht="48" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
@@ -1184,10 +1503,10 @@
         <v>3</v>
       </c>
       <c r="K14" s="6">
-        <v>0.459197651663405</v>
+        <v>0.45919765166340498</v>
       </c>
       <c r="L14" s="6">
-        <v>6.76894172674525</v>
+        <v>6.7689417267452496</v>
       </c>
       <c r="M14" s="6">
         <v>0</v>
@@ -1209,7 +1528,7 @@
       </c>
       <c r="S14" s="7"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:19" ht="48" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>39</v>
       </c>
@@ -1244,7 +1563,7 @@
         <v>0.7890625</v>
       </c>
       <c r="L15" s="6">
-        <v>8.84627894554724</v>
+        <v>8.8462789455472404</v>
       </c>
       <c r="M15" s="6">
         <v>0</v>
@@ -1266,7 +1585,7 @@
       </c>
       <c r="S15" s="7"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:19" ht="96" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>39</v>
       </c>
@@ -1298,10 +1617,10 @@
         <v>3</v>
       </c>
       <c r="K16" s="6">
-        <v>0.131801510248112</v>
+        <v>0.13180151024811201</v>
       </c>
       <c r="L16" s="6">
-        <v>2.90328700316767</v>
+        <v>2.9032870031676699</v>
       </c>
       <c r="M16" s="6">
         <v>0</v>
@@ -1323,7 +1642,7 @@
       </c>
       <c r="S16" s="7"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:19" ht="96" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>39</v>
       </c>
@@ -1355,10 +1674,10 @@
         <v>9</v>
       </c>
       <c r="K17" s="6">
-        <v>0.332402755267423</v>
+        <v>0.33240275526742302</v>
       </c>
       <c r="L17" s="6">
-        <v>4.50228671293183</v>
+        <v>4.5022867129318298</v>
       </c>
       <c r="M17" s="6">
         <v>0</v>
@@ -1380,7 +1699,7 @@
       </c>
       <c r="S17" s="7"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:19" ht="96" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>39</v>
       </c>
@@ -1412,10 +1731,10 @@
         <v>4</v>
       </c>
       <c r="K18" s="6">
-        <v>0.204918781725888</v>
+        <v>0.20491878172588801</v>
       </c>
       <c r="L18" s="6">
-        <v>3.83364104369899</v>
+        <v>3.8336410436989898</v>
       </c>
       <c r="M18" s="6">
         <v>0</v>
@@ -1437,7 +1756,7 @@
       </c>
       <c r="S18" s="7"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:19" ht="96" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>42</v>
       </c>
@@ -1469,7 +1788,7 @@
         <v>43</v>
       </c>
       <c r="K19" s="6">
-        <v>4.20647003745318</v>
+        <v>4.2064700374531796</v>
       </c>
       <c r="L19" s="6">
         <v>15.7963896129754</v>
@@ -1490,11 +1809,11 @@
         <v>52.945</v>
       </c>
       <c r="R19" s="6">
-        <v>79.0898604651163</v>
+        <v>79.089860465116303</v>
       </c>
       <c r="S19" s="7"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:19" ht="96" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>42</v>
       </c>
@@ -1526,10 +1845,10 @@
         <v>97</v>
       </c>
       <c r="K20" s="6">
-        <v>6.42534117647059</v>
+        <v>6.4253411764705897</v>
       </c>
       <c r="L20" s="6">
-        <v>19.6698837904216</v>
+        <v>19.669883790421601</v>
       </c>
       <c r="M20" s="6">
         <v>0</v>
@@ -1547,11 +1866,11 @@
         <v>73.88</v>
       </c>
       <c r="R20" s="6">
-        <v>93.9419072164948</v>
+        <v>93.941907216494798</v>
       </c>
       <c r="S20" s="7"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:19" ht="96" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
@@ -1583,10 +1902,10 @@
         <v>18</v>
       </c>
       <c r="K21" s="6">
-        <v>7.08899253731343</v>
+        <v>7.0889925373134304</v>
       </c>
       <c r="L21" s="6">
-        <v>19.5756172448978</v>
+        <v>19.575617244897799</v>
       </c>
       <c r="M21" s="6">
         <v>0</v>
@@ -1601,16 +1920,16 @@
         <v>52.945</v>
       </c>
       <c r="Q21" s="6">
-        <v>77.7161388888889</v>
+        <v>77.716138888888906</v>
       </c>
       <c r="R21" s="6">
-        <v>84.5320166666667</v>
+        <v>84.532016666666706</v>
       </c>
       <c r="S21" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:19" ht="48" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>44</v>
       </c>
@@ -1642,10 +1961,10 @@
         <v>5</v>
       </c>
       <c r="K22" s="6">
-        <v>0.845115473441108</v>
+        <v>0.84511547344110804</v>
       </c>
       <c r="L22" s="6">
-        <v>8.15675308782294</v>
+        <v>8.1567530878229402</v>
       </c>
       <c r="M22" s="6">
         <v>0</v>
@@ -1667,7 +1986,7 @@
       </c>
       <c r="S22" s="7"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:19" ht="48" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>44</v>
       </c>
@@ -1702,7 +2021,7 @@
         <v>1.62509345794393</v>
       </c>
       <c r="L23" s="6">
-        <v>25.2733019752325</v>
+        <v>25.273301975232499</v>
       </c>
       <c r="M23" s="6">
         <v>0</v>
@@ -1724,7 +2043,7 @@
       </c>
       <c r="S23" s="7"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:19" ht="60" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>47</v>
       </c>
@@ -1756,10 +2075,10 @@
         <v>119</v>
       </c>
       <c r="K24" s="6">
-        <v>1.97969285298035</v>
+        <v>1.9796928529803499</v>
       </c>
       <c r="L24" s="6">
-        <v>9.57102736691888</v>
+        <v>9.5710273669188801</v>
       </c>
       <c r="M24" s="6">
         <v>0</v>
@@ -1777,11 +2096,11 @@
         <v>33.3333333333333</v>
       </c>
       <c r="R24" s="6">
-        <v>50.4335871482353</v>
+        <v>50.433587148235297</v>
       </c>
       <c r="S24" s="7"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:19" ht="72" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>47</v>
       </c>
@@ -1813,7 +2132,7 @@
         <v>75</v>
       </c>
       <c r="K25" s="6">
-        <v>2.06134475597092</v>
+        <v>2.0613447559709202</v>
       </c>
       <c r="L25" s="6">
         <v>9.16767928856504</v>
@@ -1828,17 +2147,17 @@
         <v>0</v>
       </c>
       <c r="P25" s="6">
-        <v>12.8394799999999</v>
+        <v>12.839479999999901</v>
       </c>
       <c r="Q25" s="6">
-        <v>21.42594</v>
+        <v>21.425940000000001</v>
       </c>
       <c r="R25" s="6">
         <v>55.46</v>
       </c>
       <c r="S25" s="7"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:19" ht="72" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>47</v>
       </c>
@@ -1870,10 +2189,10 @@
         <v>31</v>
       </c>
       <c r="K26" s="6">
-        <v>1.32685046728972</v>
+        <v>1.3268504672897199</v>
       </c>
       <c r="L26" s="6">
-        <v>6.3750210351474</v>
+        <v>6.3750210351473999</v>
       </c>
       <c r="M26" s="6">
         <v>0</v>
@@ -1885,17 +2204,17 @@
         <v>0</v>
       </c>
       <c r="P26" s="6">
-        <v>8.4333064516129</v>
+        <v>8.4333064516128999</v>
       </c>
       <c r="Q26" s="6">
         <v>21.33</v>
       </c>
       <c r="R26" s="6">
-        <v>38.395</v>
+        <v>38.395000000000003</v>
       </c>
       <c r="S26" s="7"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:19" ht="120" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>47</v>
       </c>
@@ -1927,7 +2246,7 @@
         <v>22</v>
       </c>
       <c r="K27" s="6">
-        <v>4.00459302325581</v>
+        <v>4.0045930232558096</v>
       </c>
       <c r="L27" s="6">
         <v>15.319773816064</v>
@@ -1942,19 +2261,19 @@
         <v>0</v>
       </c>
       <c r="P27" s="6">
-        <v>38.0628181818182</v>
+        <v>38.062818181818201</v>
       </c>
       <c r="Q27" s="6">
-        <v>62.2427159090907</v>
+        <v>62.242715909090698</v>
       </c>
       <c r="R27" s="6">
-        <v>74.6660954545454</v>
+        <v>74.666095454545399</v>
       </c>
       <c r="S27" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:19" ht="120" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>47</v>
       </c>
@@ -1986,7 +2305,7 @@
         <v>84</v>
       </c>
       <c r="K28" s="6">
-        <v>4.86335443037975</v>
+        <v>4.8633544303797498</v>
       </c>
       <c r="L28" s="6">
         <v>17.3463323623447</v>
@@ -2001,17 +2320,17 @@
         <v>0</v>
       </c>
       <c r="P28" s="6">
-        <v>38.73</v>
+        <v>38.729999999999997</v>
       </c>
       <c r="Q28" s="6">
         <v>72.38</v>
       </c>
       <c r="R28" s="6">
-        <v>83.883057142857</v>
+        <v>83.883057142856998</v>
       </c>
       <c r="S28" s="7"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:19" ht="120" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>47</v>
       </c>
@@ -2043,7 +2362,7 @@
         <v>76</v>
       </c>
       <c r="K29" s="6">
-        <v>8.20523483365949</v>
+        <v>8.2052348336594907</v>
       </c>
       <c r="L29" s="6">
         <v>23.0321699348005</v>
@@ -2061,14 +2380,14 @@
         <v>59.13</v>
       </c>
       <c r="Q29" s="6">
-        <v>86.8317927631578</v>
+        <v>86.831792763157793</v>
       </c>
       <c r="R29" s="6">
-        <v>110.471217105263</v>
+        <v>110.47121710526299</v>
       </c>
       <c r="S29" s="7"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:19" ht="120" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>47</v>
       </c>
@@ -2100,10 +2419,10 @@
         <v>36</v>
       </c>
       <c r="K30" s="6">
-        <v>5.27143636363636</v>
+        <v>5.2714363636363597</v>
       </c>
       <c r="L30" s="6">
-        <v>15.6990507823189</v>
+        <v>15.699050782318899</v>
       </c>
       <c r="M30" s="6">
         <v>0</v>
@@ -2115,19 +2434,19 @@
         <v>0</v>
       </c>
       <c r="P30" s="6">
-        <v>41.6272569444445</v>
+        <v>41.627256944444497</v>
       </c>
       <c r="Q30" s="6">
-        <v>56.544375</v>
+        <v>56.544375000000002</v>
       </c>
       <c r="R30" s="6">
-        <v>76.9673958333334</v>
+        <v>76.967395833333399</v>
       </c>
       <c r="S30" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:19" ht="60" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>51</v>
       </c>
@@ -2159,10 +2478,10 @@
         <v>37</v>
       </c>
       <c r="K31" s="6">
-        <v>5.30635939708121</v>
+        <v>5.3063593970812102</v>
       </c>
       <c r="L31" s="6">
-        <v>15.8702481752969</v>
+        <v>15.870248175296901</v>
       </c>
       <c r="M31" s="6">
         <v>0</v>
@@ -2174,17 +2493,17 @@
         <v>0</v>
       </c>
       <c r="P31" s="6">
-        <v>46.1349453174162</v>
+        <v>46.134945317416197</v>
       </c>
       <c r="Q31" s="6">
-        <v>46.511627907</v>
+        <v>46.511627906999998</v>
       </c>
       <c r="R31" s="6">
         <v>67.5</v>
       </c>
       <c r="S31" s="7"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:19" ht="60" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>51</v>
       </c>
@@ -2216,7 +2535,7 @@
         <v>257</v>
       </c>
       <c r="K32" s="6">
-        <v>8.83673169267707</v>
+        <v>8.8367316926770698</v>
       </c>
       <c r="L32" s="6">
         <v>24.5472963023057</v>
@@ -2241,7 +2560,7 @@
       </c>
       <c r="S32" s="7"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:19" ht="60" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>51</v>
       </c>
@@ -2291,14 +2610,14 @@
         <v>22.5</v>
       </c>
       <c r="Q33" s="6">
-        <v>43.0134137426808</v>
+        <v>43.013413742680797</v>
       </c>
       <c r="R33" s="6">
-        <v>47.3476744186224</v>
+        <v>47.347674418622397</v>
       </c>
       <c r="S33" s="7"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:19" ht="84" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>53</v>
       </c>
@@ -2345,17 +2664,17 @@
         <v>0</v>
       </c>
       <c r="P34" s="6">
-        <v>19.4117647058824</v>
+        <v>19.411764705882401</v>
       </c>
       <c r="Q34" s="6">
-        <v>44.5588235294118</v>
+        <v>44.558823529411796</v>
       </c>
       <c r="R34" s="6">
-        <v>57.7058823529412</v>
+        <v>57.705882352941202</v>
       </c>
       <c r="S34" s="7"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:19" ht="84" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>53</v>
       </c>
@@ -2387,10 +2706,10 @@
         <v>257</v>
       </c>
       <c r="K35" s="6">
-        <v>5.68040489642184</v>
+        <v>5.6804048964218401</v>
       </c>
       <c r="L35" s="6">
-        <v>20.1833272439123</v>
+        <v>20.183327243912299</v>
       </c>
       <c r="M35" s="6">
         <v>0</v>
@@ -2402,17 +2721,17 @@
         <v>0</v>
       </c>
       <c r="P35" s="6">
-        <v>43.8299610894941</v>
+        <v>43.829961089494098</v>
       </c>
       <c r="Q35" s="6">
-        <v>67.6599221789885</v>
+        <v>67.659922178988495</v>
       </c>
       <c r="R35" s="6">
         <v>103.450635019454</v>
       </c>
       <c r="S35" s="7"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:19" ht="84" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>53</v>
       </c>
@@ -2444,7 +2763,7 @@
         <v>91</v>
       </c>
       <c r="K36" s="6">
-        <v>9.78719047619048</v>
+        <v>9.7871904761904798</v>
       </c>
       <c r="L36" s="6">
         <v>30.3602790744571</v>
@@ -2462,14 +2781,14 @@
         <v>60</v>
       </c>
       <c r="Q36" s="6">
-        <v>91.3240384615384</v>
+        <v>91.324038461538393</v>
       </c>
       <c r="R36" s="6">
-        <v>149.601923076923</v>
+        <v>149.60192307692299</v>
       </c>
       <c r="S36" s="7"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:19" ht="120" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>53</v>
       </c>
@@ -2501,10 +2820,10 @@
         <v>2</v>
       </c>
       <c r="K37" s="6">
-        <v>0.692073170731707</v>
+        <v>0.69207317073170704</v>
       </c>
       <c r="L37" s="6">
-        <v>4.2167909859883</v>
+        <v>4.2167909859883004</v>
       </c>
       <c r="M37" s="6">
         <v>0</v>
@@ -2522,13 +2841,13 @@
         <v>13.8671875</v>
       </c>
       <c r="R37" s="6">
-        <v>21.746875</v>
+        <v>21.746874999999999</v>
       </c>
       <c r="S37" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:19" ht="120" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>53</v>
       </c>
@@ -2560,10 +2879,10 @@
         <v>1</v>
       </c>
       <c r="K38" s="6">
-        <v>8.44246031746032E-03</v>
+        <v>8.4424603174603208E-3</v>
       </c>
       <c r="L38" s="6">
-        <v>0.189532764056228</v>
+        <v>0.18953276405622799</v>
       </c>
       <c r="M38" s="6">
         <v>0</v>
@@ -2585,7 +2904,7 @@
       </c>
       <c r="S38" s="7"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:19" ht="120" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>53</v>
       </c>
@@ -2617,10 +2936,10 @@
         <v>35</v>
       </c>
       <c r="K39" s="6">
-        <v>4.28811345646438</v>
+        <v>4.2881134564643801</v>
       </c>
       <c r="L39" s="6">
-        <v>18.1890332296967</v>
+        <v>18.189033229696701</v>
       </c>
       <c r="M39" s="6">
         <v>0</v>
@@ -2632,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="6">
-        <v>33.5485714285715</v>
+        <v>33.548571428571499</v>
       </c>
       <c r="Q39" s="6">
         <v>60</v>
@@ -2642,7 +2961,7 @@
       </c>
       <c r="S39" s="7"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:19" ht="120" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>53</v>
       </c>
@@ -2674,10 +2993,10 @@
         <v>43</v>
       </c>
       <c r="K40" s="6">
-        <v>1.57467973856209</v>
+        <v>1.5746797385620901</v>
       </c>
       <c r="L40" s="6">
-        <v>7.27661347021692</v>
+        <v>7.2766134702169198</v>
       </c>
       <c r="M40" s="6">
         <v>0</v>
@@ -2692,14 +3011,14 @@
         <v>10.3035465116279</v>
       </c>
       <c r="Q40" s="6">
-        <v>27.9593023255814</v>
+        <v>27.959302325581401</v>
       </c>
       <c r="R40" s="6">
-        <v>42.8755813953489</v>
+        <v>42.875581395348902</v>
       </c>
       <c r="S40" s="7"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:19" ht="120" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>53</v>
       </c>
@@ -2734,7 +3053,7 @@
         <v>1.30794776119403</v>
       </c>
       <c r="L41" s="6">
-        <v>11.5793446835575</v>
+        <v>11.579344683557499</v>
       </c>
       <c r="M41" s="6">
         <v>0</v>
@@ -2758,7 +3077,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:19" ht="72" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>58</v>
       </c>
@@ -2790,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="K42" s="6">
-        <v>2.4E-02</v>
+        <v>2.4E-2</v>
       </c>
       <c r="L42" s="6">
         <v>0.379473319220206</v>
@@ -2817,7 +3136,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:19" ht="48" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>58</v>
       </c>
@@ -2849,10 +3168,10 @@
         <v>14</v>
       </c>
       <c r="K43" s="6">
-        <v>0.381081081081081</v>
+        <v>0.38108108108108102</v>
       </c>
       <c r="L43" s="6">
-        <v>4.72494502363988</v>
+        <v>4.7249450236398802</v>
       </c>
       <c r="M43" s="6">
         <v>0</v>
@@ -2874,7 +3193,7 @@
       </c>
       <c r="S43" s="7"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:19" ht="48" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>58</v>
       </c>
@@ -2906,10 +3225,10 @@
         <v>7</v>
       </c>
       <c r="K44" s="6">
-        <v>0.646973365617433</v>
+        <v>0.64697336561743302</v>
       </c>
       <c r="L44" s="6">
-        <v>7.12968781515165</v>
+        <v>7.1296878151516498</v>
       </c>
       <c r="M44" s="6">
         <v>0</v>
@@ -2931,7 +3250,7 @@
       </c>
       <c r="S44" s="7"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:19" ht="48" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>58</v>
       </c>
@@ -2966,7 +3285,7 @@
         <v>0.265635451505017</v>
       </c>
       <c r="L45" s="6">
-        <v>3.1520011066966</v>
+        <v>3.1520011066965998</v>
       </c>
       <c r="M45" s="6">
         <v>0</v>
@@ -2984,11 +3303,11 @@
         <v>0</v>
       </c>
       <c r="R45" s="6">
-        <v>8.7599999999998</v>
+        <v>8.7599999999998008</v>
       </c>
       <c r="S45" s="7"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:19" ht="48" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
         <v>58</v>
       </c>
@@ -3020,10 +3339,10 @@
         <v>10</v>
       </c>
       <c r="K46" s="6">
-        <v>0.600435729847495</v>
+        <v>0.60043572984749505</v>
       </c>
       <c r="L46" s="6">
-        <v>4.88779781653399</v>
+        <v>4.8877978165339897</v>
       </c>
       <c r="M46" s="6">
         <v>0</v>
@@ -3041,11 +3360,11 @@
         <v>0</v>
       </c>
       <c r="R46" s="6">
-        <v>24.9519999999998</v>
+        <v>24.951999999999799</v>
       </c>
       <c r="S46" s="7"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:19" ht="72" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
         <v>62</v>
       </c>
@@ -3077,10 +3396,10 @@
         <v>46</v>
       </c>
       <c r="K47" s="6">
-        <v>0.622375568932609</v>
+        <v>0.62237556893260904</v>
       </c>
       <c r="L47" s="6">
-        <v>3.44261145771032</v>
+        <v>3.4426114577103202</v>
       </c>
       <c r="M47" s="6">
         <v>0</v>
@@ -3102,7 +3421,7 @@
       </c>
       <c r="S47" s="7"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:19" ht="72" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>62</v>
       </c>
@@ -3137,7 +3456,7 @@
         <v>1.09740354841409</v>
       </c>
       <c r="L48" s="6">
-        <v>5.0987422276569</v>
+        <v>5.0987422276569001</v>
       </c>
       <c r="M48" s="6">
         <v>0</v>
@@ -3152,14 +3471,14 @@
         <v>11</v>
       </c>
       <c r="Q48" s="6">
-        <v>15.7142857142857</v>
+        <v>15.714285714285699</v>
       </c>
       <c r="R48" s="6">
         <v>23.1446938775509</v>
       </c>
       <c r="S48" s="7"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:19" ht="72" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>62</v>
       </c>
@@ -3194,7 +3513,7 @@
         <v>1.30167748917749</v>
       </c>
       <c r="L49" s="6">
-        <v>6.25432234242416</v>
+        <v>6.2543223424241603</v>
       </c>
       <c r="M49" s="6">
         <v>0</v>
@@ -3206,19 +3525,19 @@
         <v>0</v>
       </c>
       <c r="P49" s="6">
-        <v>12.6761904761904</v>
+        <v>12.676190476190399</v>
       </c>
       <c r="Q49" s="6">
         <v>14.1428571428571</v>
       </c>
       <c r="R49" s="6">
-        <v>21.5819047619049</v>
+        <v>21.581904761904902</v>
       </c>
       <c r="S49" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:19" ht="72" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
         <v>62</v>
       </c>
@@ -3253,7 +3572,7 @@
         <v>0.250889152341435</v>
       </c>
       <c r="L50" s="6">
-        <v>1.76695650097254</v>
+        <v>1.7669565009725401</v>
       </c>
       <c r="M50" s="6">
         <v>0</v>
@@ -3268,14 +3587,14 @@
         <v>0</v>
       </c>
       <c r="Q50" s="6">
-        <v>3.92857142857143</v>
+        <v>3.9285714285714302</v>
       </c>
       <c r="R50" s="6">
-        <v>7.85714285714286</v>
+        <v>7.8571428571428603</v>
       </c>
       <c r="S50" s="7"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:19" ht="72" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>62</v>
       </c>
@@ -3310,7 +3629,7 @@
         <v>1.96173469387755</v>
       </c>
       <c r="L51" s="6">
-        <v>6.42497936006814</v>
+        <v>6.4249793600681402</v>
       </c>
       <c r="M51" s="6">
         <v>0</v>
@@ -3325,16 +3644,16 @@
         <v>14.1428571428571</v>
       </c>
       <c r="Q51" s="6">
-        <v>28.5714285714286</v>
+        <v>28.571428571428601</v>
       </c>
       <c r="R51" s="6">
-        <v>30.0914285714286</v>
+        <v>30.091428571428601</v>
       </c>
       <c r="S51" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:19" ht="72" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>62</v>
       </c>
@@ -3369,7 +3688,7 @@
         <v>0.156239579587021</v>
       </c>
       <c r="L52" s="6">
-        <v>2.35861432083255</v>
+        <v>2.3586143208325501</v>
       </c>
       <c r="M52" s="6">
         <v>0</v>
@@ -3391,7 +3710,7 @@
       </c>
       <c r="S52" s="7"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:19" ht="72" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
         <v>62</v>
       </c>
@@ -3423,10 +3742,10 @@
         <v>26</v>
       </c>
       <c r="K53" s="6">
-        <v>0.768827095563076</v>
+        <v>0.76882709556307605</v>
       </c>
       <c r="L53" s="6">
-        <v>9.13975312891888</v>
+        <v>9.1397531289188798</v>
       </c>
       <c r="M53" s="6">
         <v>0</v>
@@ -3444,11 +3763,11 @@
         <v>0</v>
       </c>
       <c r="R53" s="6">
-        <v>29.6028428189101</v>
+        <v>29.602842818910101</v>
       </c>
       <c r="S53" s="7"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:19" ht="72" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
         <v>62</v>
       </c>
@@ -3480,10 +3799,10 @@
         <v>11</v>
       </c>
       <c r="K54" s="6">
-        <v>1.79324257777778</v>
+        <v>1.7932425777777801</v>
       </c>
       <c r="L54" s="6">
-        <v>16.2552187693798</v>
+        <v>16.255218769379798</v>
       </c>
       <c r="M54" s="6">
         <v>0</v>
@@ -3505,7 +3824,7 @@
       </c>
       <c r="S54" s="7"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:19" ht="72" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
         <v>62</v>
       </c>
@@ -3537,10 +3856,10 @@
         <v>2</v>
       </c>
       <c r="K55" s="6">
-        <v>5.52833911971831E-02</v>
+        <v>5.5283391197183097E-2</v>
       </c>
       <c r="L55" s="6">
-        <v>1.22198958570328</v>
+        <v>1.2219895857032801</v>
       </c>
       <c r="M55" s="6">
         <v>0</v>
@@ -3562,7 +3881,7 @@
       </c>
       <c r="S55" s="7"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:19" ht="72" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
         <v>62</v>
       </c>
@@ -3594,10 +3913,10 @@
         <v>7</v>
       </c>
       <c r="K56" s="6">
-        <v>3.34913621694915</v>
+        <v>3.3491362169491499</v>
       </c>
       <c r="L56" s="6">
-        <v>16.4013706817339</v>
+        <v>16.401370681733901</v>
       </c>
       <c r="M56" s="6">
         <v>0</v>
@@ -3612,7 +3931,7 @@
         <v>21.7391306333333</v>
       </c>
       <c r="Q56" s="6">
-        <v>46.4977227380952</v>
+        <v>46.497722738095199</v>
       </c>
       <c r="R56" s="6">
         <v>97.979291485714</v>
@@ -3621,7 +3940,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:19" ht="84" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
         <v>65</v>
       </c>
@@ -3653,10 +3972,10 @@
         <v>17</v>
       </c>
       <c r="K57" s="6">
-        <v>0.471973833902162</v>
+        <v>0.47197383390216202</v>
       </c>
       <c r="L57" s="6">
-        <v>2.44578327379438</v>
+        <v>2.4457832737943801</v>
       </c>
       <c r="M57" s="6">
         <v>0</v>
@@ -3671,7 +3990,7 @@
         <v>2.11484313725486</v>
       </c>
       <c r="Q57" s="6">
-        <v>7.31213725490197</v>
+        <v>7.3121372549019696</v>
       </c>
       <c r="R57" s="6">
         <v>13.7763529411765</v>
@@ -3680,7 +3999,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:19" ht="84" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
         <v>65</v>
       </c>
@@ -3715,7 +4034,7 @@
         <v>0.155795977011494</v>
       </c>
       <c r="L58" s="6">
-        <v>1.25024996753026</v>
+        <v>1.2502499675302601</v>
       </c>
       <c r="M58" s="6">
         <v>0</v>
@@ -3733,11 +4052,11 @@
         <v>0</v>
       </c>
       <c r="R58" s="6">
-        <v>6.12115999999997</v>
+        <v>6.1211599999999704</v>
       </c>
       <c r="S58" s="7"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:19" ht="120" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
         <v>65</v>
       </c>
@@ -3769,7 +4088,7 @@
         <v>7</v>
       </c>
       <c r="K59" s="6">
-        <v>0.227272727272727</v>
+        <v>0.22727272727272699</v>
       </c>
       <c r="L59" s="6">
         <v>2.90006161651127</v>
@@ -3794,7 +4113,7 @@
       </c>
       <c r="S59" s="7"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:19" ht="120" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
         <v>65</v>
       </c>
@@ -3826,10 +4145,10 @@
         <v>1</v>
       </c>
       <c r="K60" s="6">
-        <v>7.53512132822478E-03</v>
+        <v>7.5351213282247803E-3</v>
       </c>
       <c r="L60" s="6">
-        <v>0.121733610582734</v>
+        <v>0.12173361058273401</v>
       </c>
       <c r="M60" s="6">
         <v>0</v>
@@ -3853,7 +4172,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:19" ht="48" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
         <v>65</v>
       </c>
@@ -3888,7 +4207,7 @@
         <v>1.06932154028838</v>
       </c>
       <c r="L61" s="6">
-        <v>5.63050785304038</v>
+        <v>5.6305078530403803</v>
       </c>
       <c r="M61" s="6">
         <v>0</v>
@@ -3900,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="6">
-        <v>6.24260169166665</v>
+        <v>6.2426016916666498</v>
       </c>
       <c r="Q61" s="6">
         <v>16.6666666666667</v>
@@ -3910,7 +4229,7 @@
       </c>
       <c r="S61" s="7"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:19" ht="48" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
         <v>65</v>
       </c>
@@ -3942,10 +4261,10 @@
         <v>35</v>
       </c>
       <c r="K62" s="6">
-        <v>0.94852531257485</v>
+        <v>0.94852531257484995</v>
       </c>
       <c r="L62" s="6">
-        <v>5.85105747087218</v>
+        <v>5.8510574708721803</v>
       </c>
       <c r="M62" s="6">
         <v>0</v>
@@ -3960,14 +4279,14 @@
         <v>0</v>
       </c>
       <c r="Q62" s="6">
-        <v>14.3885186714286</v>
+        <v>14.388518671428599</v>
       </c>
       <c r="R62" s="6">
         <v>32.6666666666667</v>
       </c>
       <c r="S62" s="7"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:19" ht="48" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
         <v>65</v>
       </c>
@@ -4002,7 +4321,7 @@
         <v>1.35855588526212</v>
       </c>
       <c r="L63" s="6">
-        <v>9.59581171485368</v>
+        <v>9.5958117148536797</v>
       </c>
       <c r="M63" s="6">
         <v>0</v>
@@ -4024,7 +4343,7 @@
       </c>
       <c r="S63" s="7"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:19" ht="48" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
         <v>65</v>
       </c>
@@ -4056,7 +4375,7 @@
         <v>541</v>
       </c>
       <c r="K64" s="6">
-        <v>2.45457337556387</v>
+        <v>2.4545733755638701</v>
       </c>
       <c r="L64" s="6">
         <v>12.4714099212229</v>
@@ -4081,7 +4400,7 @@
       </c>
       <c r="S64" s="7"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:19" ht="48" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
         <v>65</v>
       </c>
@@ -4113,10 +4432,10 @@
         <v>189</v>
       </c>
       <c r="K65" s="6">
-        <v>4.29962612163509</v>
+        <v>4.2996261216350904</v>
       </c>
       <c r="L65" s="6">
-        <v>16.2952581297752</v>
+        <v>16.295258129775199</v>
       </c>
       <c r="M65" s="6">
         <v>0</v>
@@ -4138,7 +4457,7 @@
       </c>
       <c r="S65" s="7"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:19" ht="48" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
         <v>65</v>
       </c>
@@ -4170,10 +4489,10 @@
         <v>42</v>
       </c>
       <c r="K66" s="6">
-        <v>4.53244897959184</v>
+        <v>4.5324489795918401</v>
       </c>
       <c r="L66" s="6">
-        <v>16.1597007568383</v>
+        <v>16.159700756838301</v>
       </c>
       <c r="M66" s="6">
         <v>0</v>
@@ -4191,11 +4510,11 @@
         <v>49.0416666666667</v>
       </c>
       <c r="R66" s="6">
-        <v>86.325</v>
+        <v>86.325000000000003</v>
       </c>
       <c r="S66" s="7"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:19" ht="132" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
         <v>70</v>
       </c>
@@ -4227,10 +4546,10 @@
         <v>1</v>
       </c>
       <c r="K67" s="6">
-        <v>1.26459143968872E-02</v>
+        <v>1.26459143968872E-2</v>
       </c>
       <c r="L67" s="6">
-        <v>0.202729430004337</v>
+        <v>0.20272943000433699</v>
       </c>
       <c r="M67" s="6">
         <v>0</v>
@@ -4254,7 +4573,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:19" ht="48" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
         <v>72</v>
       </c>
@@ -4289,7 +4608,7 @@
         <v>14.5499689633768</v>
       </c>
       <c r="L68" s="6">
-        <v>39.3771302820604</v>
+        <v>39.377130282060399</v>
       </c>
       <c r="M68" s="6">
         <v>0</v>
@@ -4311,7 +4630,7 @@
       </c>
       <c r="S68" s="7"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:19" ht="48" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
         <v>72</v>
       </c>
@@ -4346,7 +4665,7 @@
         <v>14.7669902912621</v>
       </c>
       <c r="L69" s="6">
-        <v>38.0865889790272</v>
+        <v>38.086588979027198</v>
       </c>
       <c r="M69" s="6">
         <v>0</v>
@@ -4370,7 +4689,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:19" ht="48" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
         <v>72</v>
       </c>
@@ -4402,10 +4721,10 @@
         <v>10</v>
       </c>
       <c r="K70" s="6">
-        <v>7.60416666666667</v>
+        <v>7.6041666666666696</v>
       </c>
       <c r="L70" s="6">
-        <v>25.2690776128385</v>
+        <v>25.269077612838501</v>
       </c>
       <c r="M70" s="6">
         <v>0</v>
@@ -4429,7 +4748,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:19" ht="60" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
         <v>72</v>
       </c>
@@ -4464,7 +4783,7 @@
         <v>10.5932765151515</v>
       </c>
       <c r="L71" s="6">
-        <v>34.0646143096852</v>
+        <v>34.064614309685197</v>
       </c>
       <c r="M71" s="6">
         <v>0</v>
@@ -4486,7 +4805,7 @@
       </c>
       <c r="S71" s="7"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:19" ht="60" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
         <v>72</v>
       </c>
@@ -4518,10 +4837,10 @@
         <v>70</v>
       </c>
       <c r="K72" s="6">
-        <v>13.0519848771267</v>
+        <v>13.051984877126699</v>
       </c>
       <c r="L72" s="6">
-        <v>40.0518353865725</v>
+        <v>40.051835386572499</v>
       </c>
       <c r="M72" s="6">
         <v>0</v>
@@ -4543,7 +4862,7 @@
       </c>
       <c r="S72" s="7"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:19" ht="60" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
         <v>72</v>
       </c>
@@ -4575,10 +4894,10 @@
         <v>102</v>
       </c>
       <c r="K73" s="6">
-        <v>17.0400853889943</v>
+        <v>17.040085388994299</v>
       </c>
       <c r="L73" s="6">
-        <v>42.5841214856174</v>
+        <v>42.584121485617402</v>
       </c>
       <c r="M73" s="6">
         <v>0</v>
@@ -4600,7 +4919,7 @@
       </c>
       <c r="S73" s="7"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:19" ht="60" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
         <v>72</v>
       </c>
@@ -4632,10 +4951,10 @@
         <v>45</v>
       </c>
       <c r="K74" s="6">
-        <v>5.40865921787709</v>
+        <v>5.4086592178770898</v>
       </c>
       <c r="L74" s="6">
-        <v>21.6691348102048</v>
+        <v>21.669134810204799</v>
       </c>
       <c r="M74" s="6">
         <v>0</v>
@@ -4657,7 +4976,7 @@
       </c>
       <c r="S74" s="7"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:19" ht="60" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
         <v>72</v>
       </c>
@@ -4689,10 +5008,10 @@
         <v>29</v>
       </c>
       <c r="K75" s="6">
-        <v>2.07663551401869</v>
+        <v>2.0766355140186898</v>
       </c>
       <c r="L75" s="6">
-        <v>11.036306524048</v>
+        <v>11.036306524047999</v>
       </c>
       <c r="M75" s="6">
         <v>0</v>
@@ -4710,11 +5029,11 @@
         <v>37.5</v>
       </c>
       <c r="R75" s="6">
-        <v>72.9310344827584</v>
+        <v>72.931034482758406</v>
       </c>
       <c r="S75" s="7"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:19" ht="48" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
         <v>75</v>
       </c>
@@ -4749,7 +5068,7 @@
         <v>1.67770419426049</v>
       </c>
       <c r="L76" s="6">
-        <v>10.9428265601121</v>
+        <v>10.942826560112101</v>
       </c>
       <c r="M76" s="6">
         <v>0</v>
@@ -4767,11 +5086,11 @@
         <v>25</v>
       </c>
       <c r="R76" s="6">
-        <v>70.4615384615378</v>
+        <v>70.461538461537799</v>
       </c>
       <c r="S76" s="7"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:19" ht="48" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
         <v>75</v>
       </c>
@@ -4803,10 +5122,10 @@
         <v>46</v>
       </c>
       <c r="K77" s="6">
-        <v>2.4822974036192</v>
+        <v>2.4822974036191998</v>
       </c>
       <c r="L77" s="6">
-        <v>15.8423172888307</v>
+        <v>15.842317288830699</v>
       </c>
       <c r="M77" s="6">
         <v>0</v>
@@ -4821,14 +5140,14 @@
         <v>0</v>
       </c>
       <c r="Q77" s="6">
-        <v>34.5788043478256</v>
+        <v>34.578804347825603</v>
       </c>
       <c r="R77" s="6">
         <v>100</v>
       </c>
       <c r="S77" s="7"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:19" ht="48" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
         <v>75</v>
       </c>
@@ -4860,10 +5179,10 @@
         <v>4</v>
       </c>
       <c r="K78" s="6">
-        <v>0.561497326203209</v>
+        <v>0.56149732620320902</v>
       </c>
       <c r="L78" s="6">
-        <v>4.02682055317417</v>
+        <v>4.0268205531741703</v>
       </c>
       <c r="M78" s="6">
         <v>0</v>
@@ -4887,7 +5206,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:19" ht="72" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
         <v>75</v>
       </c>
@@ -4919,10 +5238,10 @@
         <v>91</v>
       </c>
       <c r="K79" s="6">
-        <v>4.14337990685296</v>
+        <v>4.1433799068529602</v>
       </c>
       <c r="L79" s="6">
-        <v>16.3366905483665</v>
+        <v>16.336690548366501</v>
       </c>
       <c r="M79" s="6">
         <v>0</v>
@@ -4940,11 +5259,11 @@
         <v>50</v>
       </c>
       <c r="R79" s="6">
-        <v>80.9010989010991</v>
+        <v>80.901098901099104</v>
       </c>
       <c r="S79" s="7"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:19" ht="48" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
         <v>75</v>
       </c>
@@ -4976,7 +5295,7 @@
         <v>50</v>
       </c>
       <c r="K80" s="6">
-        <v>2.93814516067742</v>
+        <v>2.9381451606774198</v>
       </c>
       <c r="L80" s="6">
         <v>11.9780106386975</v>
@@ -4994,14 +5313,14 @@
         <v>25</v>
       </c>
       <c r="Q80" s="6">
-        <v>46.485</v>
+        <v>46.484999999999999</v>
       </c>
       <c r="R80" s="6">
         <v>50</v>
       </c>
       <c r="S80" s="7"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:19" ht="48" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
         <v>75</v>
       </c>
@@ -5033,10 +5352,10 @@
         <v>150</v>
       </c>
       <c r="K81" s="6">
-        <v>7.70222222009722</v>
+        <v>7.7022222200972204</v>
       </c>
       <c r="L81" s="6">
-        <v>24.1451209787316</v>
+        <v>24.145120978731601</v>
       </c>
       <c r="M81" s="6">
         <v>0</v>
@@ -5051,14 +5370,14 @@
         <v>50</v>
       </c>
       <c r="Q81" s="6">
-        <v>82.3549999999999</v>
+        <v>82.354999999999905</v>
       </c>
       <c r="R81" s="6">
-        <v>101.772</v>
+        <v>101.77200000000001</v>
       </c>
       <c r="S81" s="7"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:19" ht="48" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
         <v>75</v>
       </c>
@@ -5090,10 +5409,10 @@
         <v>46</v>
       </c>
       <c r="K82" s="6">
-        <v>8.90100000381667</v>
+        <v>8.9010000038166694</v>
       </c>
       <c r="L82" s="6">
-        <v>26.579827687907</v>
+        <v>26.579827687906999</v>
       </c>
       <c r="M82" s="6">
         <v>0</v>
@@ -5105,17 +5424,17 @@
         <v>0</v>
       </c>
       <c r="P82" s="6">
-        <v>57.8532608695652</v>
+        <v>57.853260869565197</v>
       </c>
       <c r="Q82" s="6">
-        <v>89.7472826086957</v>
+        <v>89.747282608695699</v>
       </c>
       <c r="R82" s="6">
         <v>106.304347826087</v>
       </c>
       <c r="S82" s="7"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:19" ht="48" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
         <v>75</v>
       </c>
@@ -5147,10 +5466,10 @@
         <v>43</v>
       </c>
       <c r="K83" s="6">
-        <v>2.05434782608696</v>
+        <v>2.0543478260869601</v>
       </c>
       <c r="L83" s="6">
-        <v>10.7534462937499</v>
+        <v>10.753446293749899</v>
       </c>
       <c r="M83" s="6">
         <v>0</v>
@@ -5162,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="P83" s="6">
-        <v>19.4279069767441</v>
+        <v>19.427906976744101</v>
       </c>
       <c r="Q83" s="6">
         <v>26.1308139534883</v>
@@ -5172,7 +5491,7 @@
       </c>
       <c r="S83" s="7"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:19" ht="48" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
         <v>75</v>
       </c>
@@ -5207,7 +5526,7 @@
         <v>1.09194214876033</v>
       </c>
       <c r="L84" s="6">
-        <v>11.5965667381696</v>
+        <v>11.596566738169599</v>
       </c>
       <c r="M84" s="6">
         <v>0</v>
@@ -5225,13 +5544,13 @@
         <v>0</v>
       </c>
       <c r="R84" s="6">
-        <v>21.9833333333333</v>
+        <v>21.983333333333299</v>
       </c>
       <c r="S84" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:19" ht="48" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
         <v>75</v>
       </c>
@@ -5266,7 +5585,7 @@
         <v>11.25</v>
       </c>
       <c r="L85" s="6">
-        <v>24.5868641532199</v>
+        <v>24.586864153219899</v>
       </c>
       <c r="M85" s="6">
         <v>0</v>
@@ -5290,7 +5609,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:19" ht="72" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
         <v>79</v>
       </c>
@@ -5337,17 +5656,17 @@
         <v>0</v>
       </c>
       <c r="P86" s="6">
-        <v>45.2365405405405</v>
+        <v>45.236540540540503</v>
       </c>
       <c r="Q86" s="6">
-        <v>51.6857702702702</v>
+        <v>51.685770270270197</v>
       </c>
       <c r="R86" s="6">
-        <v>80.6163351351353</v>
+        <v>80.616335135135301</v>
       </c>
       <c r="S86" s="7"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:19" ht="72" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
         <v>79</v>
       </c>
@@ -5379,10 +5698,10 @@
         <v>101</v>
       </c>
       <c r="K87" s="6">
-        <v>10.0536298421808</v>
+        <v>10.053629842180801</v>
       </c>
       <c r="L87" s="6">
-        <v>28.8390767550567</v>
+        <v>28.839076755056698</v>
       </c>
       <c r="M87" s="6">
         <v>0</v>
@@ -5404,7 +5723,7 @@
       </c>
       <c r="S87" s="7"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:19" ht="72" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
         <v>79</v>
       </c>
@@ -5436,10 +5755,10 @@
         <v>58</v>
       </c>
       <c r="K88" s="6">
-        <v>14.0955298013245</v>
+        <v>14.095529801324499</v>
       </c>
       <c r="L88" s="6">
-        <v>35.8011022916861</v>
+        <v>35.801102291686099</v>
       </c>
       <c r="M88" s="6">
         <v>0</v>
@@ -5451,17 +5770,17 @@
         <v>0</v>
       </c>
       <c r="P88" s="6">
-        <v>85.4008620689655</v>
+        <v>85.400862068965495</v>
       </c>
       <c r="Q88" s="6">
-        <v>143.286426724138</v>
+        <v>143.28642672413801</v>
       </c>
       <c r="R88" s="6">
-        <v>175.026937931035</v>
+        <v>175.02693793103501</v>
       </c>
       <c r="S88" s="7"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:19" ht="72" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
         <v>79</v>
       </c>
@@ -5493,10 +5812,10 @@
         <v>21</v>
       </c>
       <c r="K89" s="6">
-        <v>6.83075</v>
+        <v>6.8307500000000001</v>
       </c>
       <c r="L89" s="6">
-        <v>22.5937620006988</v>
+        <v>22.593762000698799</v>
       </c>
       <c r="M89" s="6">
         <v>0</v>
@@ -5508,10 +5827,10 @@
         <v>0</v>
       </c>
       <c r="P89" s="6">
-        <v>61.0426190476191</v>
+        <v>61.042619047619098</v>
       </c>
       <c r="Q89" s="6">
-        <v>85.8564285714286</v>
+        <v>85.856428571428594</v>
       </c>
       <c r="R89" s="6">
         <v>101.961904761905</v>
@@ -5520,7 +5839,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:19" ht="84" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
         <v>79</v>
       </c>
@@ -5552,10 +5871,10 @@
         <v>17</v>
       </c>
       <c r="K90" s="6">
-        <v>2.17138111888112</v>
+        <v>2.1713811188811198</v>
       </c>
       <c r="L90" s="6">
-        <v>9.69027313529886</v>
+        <v>9.6902731352988596</v>
       </c>
       <c r="M90" s="6">
         <v>0</v>
@@ -5567,19 +5886,19 @@
         <v>0</v>
       </c>
       <c r="P90" s="6">
-        <v>21.985</v>
+        <v>21.984999999999999</v>
       </c>
       <c r="Q90" s="6">
-        <v>30.4514117647053</v>
+        <v>30.451411764705298</v>
       </c>
       <c r="R90" s="6">
-        <v>53.7729176470588</v>
+        <v>53.772917647058797</v>
       </c>
       <c r="S90" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:19" ht="84" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
         <v>79</v>
       </c>
@@ -5614,7 +5933,7 @@
         <v>0.504635416666667</v>
       </c>
       <c r="L91" s="6">
-        <v>3.47324785331942</v>
+        <v>3.4732478533194202</v>
       </c>
       <c r="M91" s="6">
         <v>0</v>
@@ -5638,7 +5957,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:19" ht="48" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
         <v>82</v>
       </c>
@@ -5670,7 +5989,7 @@
         <v>30</v>
       </c>
       <c r="K92" s="6">
-        <v>2.4891175021424</v>
+        <v>2.4891175021423999</v>
       </c>
       <c r="L92" s="6">
         <v>14.1336178735719</v>
@@ -5691,11 +6010,11 @@
         <v>43.9149578947438</v>
       </c>
       <c r="R92" s="6">
-        <v>72.6509526316</v>
+        <v>72.650952631600006</v>
       </c>
       <c r="S92" s="7"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:19" ht="48" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
         <v>82</v>
       </c>
@@ -5727,10 +6046,10 @@
         <v>20</v>
       </c>
       <c r="K93" s="6">
-        <v>0.596185997910136</v>
+        <v>0.59618599791013605</v>
       </c>
       <c r="L93" s="6">
-        <v>5.10053206869427</v>
+        <v>5.1005320686942701</v>
       </c>
       <c r="M93" s="6">
         <v>0</v>
@@ -5748,11 +6067,11 @@
         <v>0</v>
       </c>
       <c r="R93" s="6">
-        <v>26.308825</v>
+        <v>26.308824999999999</v>
       </c>
       <c r="S93" s="7"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:19" ht="48" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
         <v>82</v>
       </c>
@@ -5784,10 +6103,10 @@
         <v>10</v>
       </c>
       <c r="K94" s="6">
-        <v>0.721273291925466</v>
+        <v>0.72127329192546596</v>
       </c>
       <c r="L94" s="6">
-        <v>4.90902651900875</v>
+        <v>4.9090265190087496</v>
       </c>
       <c r="M94" s="6">
         <v>0</v>
@@ -5802,14 +6121,14 @@
         <v>0</v>
       </c>
       <c r="Q94" s="6">
-        <v>7.37749999999999</v>
+        <v>7.3774999999999897</v>
       </c>
       <c r="R94" s="6">
-        <v>26.9428</v>
+        <v>26.942799999999998</v>
       </c>
       <c r="S94" s="7"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:19" ht="84" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
         <v>82</v>
       </c>
@@ -5859,14 +6178,14 @@
         <v>0</v>
       </c>
       <c r="Q95" s="6">
-        <v>22.4564808666669</v>
+        <v>22.456480866666901</v>
       </c>
       <c r="R95" s="6">
         <v>58.443655</v>
       </c>
       <c r="S95" s="7"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:19" ht="84" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
         <v>82</v>
       </c>
@@ -5916,14 +6235,14 @@
         <v>0</v>
       </c>
       <c r="Q96" s="6">
-        <v>42.650661831579</v>
+        <v>42.650661831579001</v>
       </c>
       <c r="R96" s="6">
-        <v>77.7620537929828</v>
+        <v>77.762053792982798</v>
       </c>
       <c r="S96" s="7"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:19" ht="84" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
         <v>82</v>
       </c>
@@ -5955,10 +6274,10 @@
         <v>8</v>
       </c>
       <c r="K97" s="6">
-        <v>3.17861399710983</v>
+        <v>3.1786139971098302</v>
       </c>
       <c r="L97" s="6">
-        <v>15.6445291044198</v>
+        <v>15.644529104419799</v>
       </c>
       <c r="M97" s="6">
         <v>0</v>
@@ -5973,16 +6292,16 @@
         <v>0</v>
       </c>
       <c r="Q97" s="6">
-        <v>65.2138446093749</v>
+        <v>65.213844609374902</v>
       </c>
       <c r="R97" s="6">
-        <v>85.9494281312502</v>
+        <v>85.949428131250201</v>
       </c>
       <c r="S97" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:19" ht="84" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
         <v>82</v>
       </c>
@@ -6014,7 +6333,7 @@
         <v>11</v>
       </c>
       <c r="K98" s="6">
-        <v>1.00873081991051</v>
+        <v>1.0087308199105101</v>
       </c>
       <c r="L98" s="6">
         <v>6.51501324213082</v>
@@ -6035,11 +6354,11 @@
         <v>0</v>
       </c>
       <c r="R98" s="6">
-        <v>44.8699691363636</v>
+        <v>44.869969136363601</v>
       </c>
       <c r="S98" s="7"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:19" ht="72" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
         <v>82</v>
       </c>
@@ -6071,10 +6390,10 @@
         <v>20</v>
       </c>
       <c r="K99" s="6">
-        <v>5.80354734948097</v>
+        <v>5.8035473494809704</v>
       </c>
       <c r="L99" s="6">
-        <v>22.7610035704009</v>
+        <v>22.761003570400899</v>
       </c>
       <c r="M99" s="6">
         <v>0</v>
@@ -6086,10 +6405,10 @@
         <v>0</v>
       </c>
       <c r="P99" s="6">
-        <v>70.09346</v>
+        <v>70.093459999999993</v>
       </c>
       <c r="Q99" s="6">
-        <v>91.65066041875</v>
+        <v>91.650660418749993</v>
       </c>
       <c r="R99" s="6">
         <v>120.6733533675</v>
@@ -6098,7 +6417,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:19" ht="72" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
         <v>82</v>
       </c>
@@ -6130,10 +6449,10 @@
         <v>21</v>
       </c>
       <c r="K100" s="6">
-        <v>2.83879714</v>
+        <v>2.8387971400000001</v>
       </c>
       <c r="L100" s="6">
-        <v>14.485311656641</v>
+        <v>14.485311656641001</v>
       </c>
       <c r="M100" s="6">
         <v>0</v>
@@ -6148,14 +6467,14 @@
         <v>0</v>
       </c>
       <c r="Q100" s="6">
-        <v>58.2348571428571</v>
+        <v>58.234857142857102</v>
       </c>
       <c r="R100" s="6">
-        <v>73.7628571428571</v>
+        <v>73.762857142857101</v>
       </c>
       <c r="S100" s="7"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:19" ht="84" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
         <v>82</v>
       </c>
@@ -6187,10 +6506,10 @@
         <v>20</v>
       </c>
       <c r="K101" s="6">
-        <v>1.07732873563218</v>
+        <v>1.0773287356321799</v>
       </c>
       <c r="L101" s="6">
-        <v>8.3960082298096</v>
+        <v>8.3960082298096008</v>
       </c>
       <c r="M101" s="6">
         <v>0</v>
@@ -6208,11 +6527,11 @@
         <v>0</v>
       </c>
       <c r="R101" s="6">
-        <v>49.0684049999999</v>
+        <v>49.068404999999899</v>
       </c>
       <c r="S101" s="7"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:19" ht="84" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
         <v>82</v>
       </c>
@@ -6265,11 +6584,11 @@
         <v>0</v>
       </c>
       <c r="R102" s="6">
-        <v>77.9450354838711</v>
+        <v>77.945035483871095</v>
       </c>
       <c r="S102" s="7"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:19" ht="84" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
         <v>82</v>
       </c>
@@ -6301,10 +6620,10 @@
         <v>12</v>
       </c>
       <c r="K103" s="6">
-        <v>1.45865290178571</v>
+        <v>1.4586529017857099</v>
       </c>
       <c r="L103" s="6">
-        <v>9.51091543743884</v>
+        <v>9.5109154374388396</v>
       </c>
       <c r="M103" s="6">
         <v>0</v>
@@ -6319,14 +6638,14 @@
         <v>0</v>
       </c>
       <c r="Q103" s="6">
-        <v>20.5789333333336</v>
+        <v>20.578933333333602</v>
       </c>
       <c r="R103" s="6">
         <v>62.31888</v>
       </c>
       <c r="S103" s="7"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:19" ht="84" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
         <v>82</v>
       </c>
@@ -6358,10 +6677,10 @@
         <v>13</v>
       </c>
       <c r="K104" s="6">
-        <v>0.491512309495897</v>
+        <v>0.49151230949589703</v>
       </c>
       <c r="L104" s="6">
-        <v>4.68920483934925</v>
+        <v>4.6892048393492498</v>
       </c>
       <c r="M104" s="6">
         <v>0</v>
@@ -6379,11 +6698,11 @@
         <v>0</v>
       </c>
       <c r="R104" s="6">
-        <v>21.6867446153847</v>
+        <v>21.686744615384701</v>
       </c>
       <c r="S104" s="7"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:19" ht="84" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
         <v>82</v>
       </c>
@@ -6415,10 +6734,10 @@
         <v>9</v>
       </c>
       <c r="K105" s="6">
-        <v>0.336388636363636</v>
+        <v>0.33638863636363597</v>
       </c>
       <c r="L105" s="6">
-        <v>2.90096696059719</v>
+        <v>2.9009669605971902</v>
       </c>
       <c r="M105" s="6">
         <v>0</v>
@@ -6440,7 +6759,7 @@
       </c>
       <c r="S105" s="7"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:19" ht="84" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
         <v>82</v>
       </c>
@@ -6475,7 +6794,7 @@
         <v>1.07869196428571</v>
       </c>
       <c r="L106" s="6">
-        <v>7.39392680559405</v>
+        <v>7.3939268055940497</v>
       </c>
       <c r="M106" s="6">
         <v>0</v>
@@ -6493,13 +6812,13 @@
         <v>0</v>
       </c>
       <c r="R106" s="6">
-        <v>51.9157839999999</v>
+        <v>51.915783999999903</v>
       </c>
       <c r="S106" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:19" ht="60" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
         <v>88</v>
       </c>
@@ -6531,10 +6850,10 @@
         <v>76</v>
       </c>
       <c r="K107" s="6">
-        <v>4.87926053962901</v>
+        <v>4.8792605396290103</v>
       </c>
       <c r="L107" s="6">
-        <v>14.480283011696</v>
+        <v>14.480283011696001</v>
       </c>
       <c r="M107" s="6">
         <v>0</v>
@@ -6546,7 +6865,7 @@
         <v>0</v>
       </c>
       <c r="P107" s="6">
-        <v>37.1101973684211</v>
+        <v>37.110197368421098</v>
       </c>
       <c r="Q107" s="6">
         <v>52.5</v>
@@ -6556,7 +6875,7 @@
       </c>
       <c r="S107" s="7"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:19" ht="60" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
         <v>88</v>
       </c>
@@ -6591,7 +6910,7 @@
         <v>11.9025686192469</v>
       </c>
       <c r="L108" s="6">
-        <v>28.8215948217621</v>
+        <v>28.821594821762101</v>
       </c>
       <c r="M108" s="6">
         <v>0</v>
@@ -6606,14 +6925,14 @@
         <v>70</v>
       </c>
       <c r="Q108" s="6">
-        <v>101.217757936508</v>
+        <v>101.21775793650799</v>
       </c>
       <c r="R108" s="6">
         <v>140</v>
       </c>
       <c r="S108" s="7"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:19" ht="60" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
         <v>88</v>
       </c>
@@ -6648,7 +6967,7 @@
         <v>11.3957070707071</v>
       </c>
       <c r="L109" s="6">
-        <v>26.6878584159434</v>
+        <v>26.687858415943399</v>
       </c>
       <c r="M109" s="6">
         <v>0</v>
@@ -6660,7 +6979,7 @@
         <v>0</v>
       </c>
       <c r="P109" s="6">
-        <v>71.8923076923076</v>
+        <v>71.892307692307597</v>
       </c>
       <c r="Q109" s="6">
         <v>103.446153846154</v>
@@ -6672,7 +6991,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:19" ht="60" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
         <v>88</v>
       </c>
@@ -6704,10 +7023,10 @@
         <v>47</v>
       </c>
       <c r="K110" s="6">
-        <v>8.74938333333333</v>
+        <v>8.7493833333333306</v>
       </c>
       <c r="L110" s="6">
-        <v>24.1487327863599</v>
+        <v>24.148732786359901</v>
       </c>
       <c r="M110" s="6">
         <v>0</v>
@@ -6719,17 +7038,17 @@
         <v>0</v>
       </c>
       <c r="P110" s="6">
-        <v>59.6595744680851</v>
+        <v>59.659574468085097</v>
       </c>
       <c r="Q110" s="6">
         <v>98.08</v>
       </c>
       <c r="R110" s="6">
-        <v>105.039893617021</v>
+        <v>105.03989361702099</v>
       </c>
       <c r="S110" s="7"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:19" ht="72" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
         <v>88</v>
       </c>
@@ -6761,10 +7080,10 @@
         <v>18</v>
       </c>
       <c r="K111" s="6">
-        <v>3.52654320987654</v>
+        <v>3.5265432098765399</v>
       </c>
       <c r="L111" s="6">
-        <v>13.3945508681666</v>
+        <v>13.394550868166601</v>
       </c>
       <c r="M111" s="6">
         <v>0</v>
@@ -6776,7 +7095,7 @@
         <v>0</v>
       </c>
       <c r="P111" s="6">
-        <v>34.05</v>
+        <v>34.049999999999997</v>
       </c>
       <c r="Q111" s="6">
         <v>52.5</v>
@@ -6788,7 +7107,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:19" ht="60" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
         <v>88</v>
       </c>
@@ -6820,10 +7139,10 @@
         <v>47</v>
       </c>
       <c r="K112" s="6">
-        <v>2.18465517241379</v>
+        <v>2.1846551724137901</v>
       </c>
       <c r="L112" s="6">
-        <v>9.4937083931986</v>
+        <v>9.4937083931986006</v>
       </c>
       <c r="M112" s="6">
         <v>0</v>
@@ -6835,17 +7154,17 @@
         <v>0</v>
       </c>
       <c r="P112" s="6">
-        <v>18.097085106383</v>
+        <v>18.097085106382998</v>
       </c>
       <c r="Q112" s="6">
-        <v>29.9199468085106</v>
+        <v>29.919946808510598</v>
       </c>
       <c r="R112" s="6">
         <v>52.5</v>
       </c>
       <c r="S112" s="7"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:19" ht="60" x14ac:dyDescent="0.15">
       <c r="A113" s="4" t="s">
         <v>88</v>
       </c>
@@ -6877,10 +7196,10 @@
         <v>14</v>
       </c>
       <c r="K113" s="6">
-        <v>0.424544925124792</v>
+        <v>0.42454492512479203</v>
       </c>
       <c r="L113" s="6">
-        <v>2.98196782840544</v>
+        <v>2.9819678284054398</v>
       </c>
       <c r="M113" s="6">
         <v>0</v>
@@ -6902,7 +7221,7 @@
       </c>
       <c r="S113" s="7"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:19" ht="72" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
         <v>88</v>
       </c>
@@ -6937,7 +7256,7 @@
         <v>3.92482993197279</v>
       </c>
       <c r="L114" s="6">
-        <v>12.9444276877004</v>
+        <v>12.944427687700401</v>
       </c>
       <c r="M114" s="6">
         <v>0</v>
@@ -6952,16 +7271,16 @@
         <v>36</v>
       </c>
       <c r="Q114" s="6">
-        <v>49.903448275862</v>
+        <v>49.903448275861997</v>
       </c>
       <c r="R114" s="6">
-        <v>65.2420689655172</v>
+        <v>65.242068965517205</v>
       </c>
       <c r="S114" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:19" ht="72" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
         <v>88</v>
       </c>
@@ -6993,10 +7312,10 @@
         <v>25</v>
       </c>
       <c r="K115" s="6">
-        <v>9.02136461267606</v>
+        <v>9.0213646126760594</v>
       </c>
       <c r="L115" s="6">
-        <v>22.3825851224798</v>
+        <v>22.382585122479799</v>
       </c>
       <c r="M115" s="6">
         <v>0</v>
@@ -7011,7 +7330,7 @@
         <v>54.69</v>
       </c>
       <c r="Q115" s="6">
-        <v>67.8579999999999</v>
+        <v>67.857999999999905</v>
       </c>
       <c r="R115" s="6">
         <v>70</v>
@@ -7020,7 +7339,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:19" ht="120" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
         <v>95</v>
       </c>
@@ -7052,10 +7371,10 @@
         <v>2</v>
       </c>
       <c r="K116" s="6">
-        <v>7.29905996131528E-03</v>
+        <v>7.2990599613152801E-3</v>
       </c>
       <c r="L116" s="6">
-        <v>0.300437882273583</v>
+        <v>0.30043788227358298</v>
       </c>
       <c r="M116" s="6">
         <v>0</v>
@@ -7077,7 +7396,7 @@
       </c>
       <c r="S116" s="7"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:19" ht="120" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
         <v>95</v>
       </c>
@@ -7109,10 +7428,10 @@
         <v>1</v>
       </c>
       <c r="K117" s="6">
-        <v>8.05500982318271E-02</v>
+        <v>8.05500982318271E-2</v>
       </c>
       <c r="L117" s="6">
-        <v>1.81729304942954</v>
+        <v>1.8172930494295401</v>
       </c>
       <c r="M117" s="6">
         <v>0</v>
@@ -7134,7 +7453,7 @@
       </c>
       <c r="S117" s="7"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:19" ht="108" x14ac:dyDescent="0.15">
       <c r="A118" s="4" t="s">
         <v>97</v>
       </c>
@@ -7169,7 +7488,7 @@
         <v>2.66079816513761</v>
       </c>
       <c r="L118" s="6">
-        <v>11.8024250707683</v>
+        <v>11.802425070768299</v>
       </c>
       <c r="M118" s="6">
         <v>0</v>
@@ -7181,17 +7500,17 @@
         <v>0</v>
       </c>
       <c r="P118" s="6">
-        <v>24.218064516129</v>
+        <v>24.218064516129001</v>
       </c>
       <c r="Q118" s="6">
-        <v>48.015</v>
+        <v>48.015000000000001</v>
       </c>
       <c r="R118" s="6">
-        <v>65.945</v>
+        <v>65.944999999999993</v>
       </c>
       <c r="S118" s="7"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:19" ht="108" x14ac:dyDescent="0.15">
       <c r="A119" s="4" t="s">
         <v>97</v>
       </c>
@@ -7226,7 +7545,7 @@
         <v>1.66224719101124</v>
       </c>
       <c r="L119" s="6">
-        <v>9.60717505216138</v>
+        <v>9.6071750521613808</v>
       </c>
       <c r="M119" s="6">
         <v>0</v>
@@ -7248,7 +7567,7 @@
       </c>
       <c r="S119" s="7"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:19" ht="48" x14ac:dyDescent="0.15">
       <c r="A120" s="4" t="s">
         <v>99</v>
       </c>
@@ -7280,10 +7599,10 @@
         <v>337</v>
       </c>
       <c r="K120" s="6">
-        <v>2.98056254272044</v>
+        <v>2.9805625427204401</v>
       </c>
       <c r="L120" s="6">
-        <v>6.0339196872277</v>
+        <v>6.0339196872276997</v>
       </c>
       <c r="M120" s="6">
         <v>0</v>
@@ -7298,14 +7617,14 @@
         <v>17.1428571428571</v>
       </c>
       <c r="Q120" s="6">
-        <v>19.2857142857143</v>
+        <v>19.285714285714299</v>
       </c>
       <c r="R120" s="6">
-        <v>25.7142857142857</v>
+        <v>25.714285714285701</v>
       </c>
       <c r="S120" s="7"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:19" ht="48" x14ac:dyDescent="0.15">
       <c r="A121" s="4" t="s">
         <v>99</v>
       </c>
@@ -7340,7 +7659,7 @@
         <v>1.77823063683305</v>
       </c>
       <c r="L121" s="6">
-        <v>4.01682800855219</v>
+        <v>4.0168280085521904</v>
       </c>
       <c r="M121" s="6">
         <v>0</v>
@@ -7355,7 +7674,7 @@
         <v>12.8571428571429</v>
       </c>
       <c r="Q121" s="6">
-        <v>12.9598928571429</v>
+        <v>12.959892857142901</v>
       </c>
       <c r="R121" s="6">
         <v>15.2700214285714</v>
@@ -7364,7 +7683,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:19" ht="48" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
         <v>99</v>
       </c>
@@ -7396,10 +7715,10 @@
         <v>5</v>
       </c>
       <c r="K122" s="6">
-        <v>0.898349206349206</v>
+        <v>0.89834920634920601</v>
       </c>
       <c r="L122" s="6">
-        <v>2.63043556773884</v>
+        <v>2.6304355677388398</v>
       </c>
       <c r="M122" s="6">
         <v>0</v>
@@ -7411,19 +7730,19 @@
         <v>0</v>
       </c>
       <c r="P122" s="6">
-        <v>8.57142857142857</v>
+        <v>8.5714285714285694</v>
       </c>
       <c r="Q122" s="6">
         <v>8.78571428571429</v>
       </c>
       <c r="R122" s="6">
-        <v>9.94285714285714</v>
+        <v>9.9428571428571395</v>
       </c>
       <c r="S122" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:19" ht="72" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
         <v>99</v>
       </c>
@@ -7455,10 +7774,10 @@
         <v>23</v>
       </c>
       <c r="K123" s="6">
-        <v>9.39109154929577</v>
+        <v>9.3910915492957692</v>
       </c>
       <c r="L123" s="6">
-        <v>26.7476356688024</v>
+        <v>26.747635668802399</v>
       </c>
       <c r="M123" s="6">
         <v>0</v>
@@ -7476,13 +7795,13 @@
         <v>105.055239130435</v>
       </c>
       <c r="R123" s="6">
-        <v>129.214408695653</v>
+        <v>129.21440869565299</v>
       </c>
       <c r="S123" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:19" ht="72" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
         <v>99</v>
       </c>
@@ -7514,10 +7833,10 @@
         <v>31</v>
       </c>
       <c r="K124" s="6">
-        <v>9.1131954887218</v>
+        <v>9.1131954887218001</v>
       </c>
       <c r="L124" s="6">
-        <v>29.5393880753059</v>
+        <v>29.539388075305901</v>
       </c>
       <c r="M124" s="6">
         <v>0</v>
@@ -7529,7 +7848,7 @@
         <v>0</v>
       </c>
       <c r="P124" s="6">
-        <v>81.2666129032257</v>
+        <v>81.266612903225706</v>
       </c>
       <c r="Q124" s="6">
         <v>106.14629032258</v>
@@ -7541,7 +7860,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:19" ht="96" x14ac:dyDescent="0.15">
       <c r="A125" s="4" t="s">
         <v>99</v>
       </c>
@@ -7573,10 +7892,10 @@
         <v>46</v>
       </c>
       <c r="K125" s="6">
-        <v>6.8936797752809</v>
+        <v>6.8936797752808996</v>
       </c>
       <c r="L125" s="6">
-        <v>22.5226397540682</v>
+        <v>22.522639754068202</v>
       </c>
       <c r="M125" s="6">
         <v>0</v>
@@ -7591,14 +7910,14 @@
         <v>51.73</v>
       </c>
       <c r="Q125" s="6">
-        <v>79.4275543478261</v>
+        <v>79.427554347826103</v>
       </c>
       <c r="R125" s="6">
         <v>108.99</v>
       </c>
       <c r="S125" s="7"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:19" ht="96" x14ac:dyDescent="0.15">
       <c r="A126" s="4" t="s">
         <v>99</v>
       </c>
@@ -7630,10 +7949,10 @@
         <v>130</v>
       </c>
       <c r="K126" s="6">
-        <v>13.9796959459459</v>
+        <v>13.979695945945901</v>
       </c>
       <c r="L126" s="6">
-        <v>37.6017126766855</v>
+        <v>37.601712676685501</v>
       </c>
       <c r="M126" s="6">
         <v>0</v>
@@ -7655,7 +7974,7 @@
       </c>
       <c r="S126" s="7"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:19" ht="96" x14ac:dyDescent="0.15">
       <c r="A127" s="4" t="s">
         <v>99</v>
       </c>
@@ -7690,7 +8009,7 @@
         <v>15.1103792134831</v>
       </c>
       <c r="L127" s="6">
-        <v>34.8080872209685</v>
+        <v>34.808087220968503</v>
       </c>
       <c r="M127" s="6">
         <v>0</v>
@@ -7702,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="P127" s="6">
-        <v>107.922341463415</v>
+        <v>107.92234146341499</v>
       </c>
       <c r="Q127" s="6">
         <v>109.09</v>
@@ -7712,7 +8031,7 @@
       </c>
       <c r="S127" s="7"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:19" ht="60" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
         <v>104</v>
       </c>
@@ -7744,10 +8063,10 @@
         <v>29</v>
       </c>
       <c r="K128" s="6">
-        <v>4.11261589403974</v>
+        <v>4.1126158940397399</v>
       </c>
       <c r="L128" s="6">
-        <v>14.3085679363862</v>
+        <v>14.308567936386201</v>
       </c>
       <c r="M128" s="6">
         <v>0</v>
@@ -7762,14 +8081,14 @@
         <v>32</v>
       </c>
       <c r="Q128" s="6">
-        <v>56.9726551724137</v>
+        <v>56.972655172413702</v>
       </c>
       <c r="R128" s="6">
-        <v>70.5769448275863</v>
+        <v>70.576944827586303</v>
       </c>
       <c r="S128" s="7"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:19" ht="60" x14ac:dyDescent="0.15">
       <c r="A129" s="4" t="s">
         <v>104</v>
       </c>
@@ -7801,10 +8120,10 @@
         <v>10</v>
       </c>
       <c r="K129" s="6">
-        <v>0.983505535055351</v>
+        <v>0.98350553505535099</v>
       </c>
       <c r="L129" s="6">
-        <v>5.52999451467871</v>
+        <v>5.5299945146787097</v>
       </c>
       <c r="M129" s="6">
         <v>0</v>
@@ -7819,7 +8138,7 @@
         <v>0</v>
       </c>
       <c r="Q129" s="6">
-        <v>21.985</v>
+        <v>21.984999999999999</v>
       </c>
       <c r="R129" s="6">
         <v>27.84</v>
@@ -7828,7 +8147,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:19" ht="60" x14ac:dyDescent="0.15">
       <c r="A130" s="4" t="s">
         <v>104</v>
       </c>
@@ -7860,7 +8179,7 @@
         <v>112</v>
       </c>
       <c r="K130" s="6">
-        <v>8.00022222222223</v>
+        <v>8.0002222222222308</v>
       </c>
       <c r="L130" s="6">
         <v>23.671859105987</v>
@@ -7878,14 +8197,14 @@
         <v>52.945</v>
       </c>
       <c r="Q130" s="6">
-        <v>80.4288560267857</v>
+        <v>80.428856026785695</v>
       </c>
       <c r="R130" s="6">
         <v>104.347761160715</v>
       </c>
       <c r="S130" s="7"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:19" ht="60" x14ac:dyDescent="0.15">
       <c r="A131" s="4" t="s">
         <v>104</v>
       </c>
@@ -7917,10 +8236,10 @@
         <v>185</v>
       </c>
       <c r="K131" s="6">
-        <v>13.9020608695652</v>
+        <v>13.902060869565201</v>
       </c>
       <c r="L131" s="6">
-        <v>38.7038838303846</v>
+        <v>38.703883830384598</v>
       </c>
       <c r="M131" s="6">
         <v>0</v>
@@ -7932,17 +8251,17 @@
         <v>0</v>
       </c>
       <c r="P131" s="6">
-        <v>101.44027027027</v>
+        <v>101.44027027027001</v>
       </c>
       <c r="Q131" s="6">
         <v>142.019324324324</v>
       </c>
       <c r="R131" s="6">
-        <v>173.75872972973</v>
+        <v>173.75872972972999</v>
       </c>
       <c r="S131" s="7"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:19" ht="60" x14ac:dyDescent="0.15">
       <c r="A132" s="4" t="s">
         <v>104</v>
       </c>
@@ -7974,10 +8293,10 @@
         <v>117</v>
       </c>
       <c r="K132" s="6">
-        <v>16.4184853700516</v>
+        <v>16.418485370051599</v>
       </c>
       <c r="L132" s="6">
-        <v>40.3579200409229</v>
+        <v>40.357920040922899</v>
       </c>
       <c r="M132" s="6">
         <v>0</v>
@@ -7992,14 +8311,14 @@
         <v>106.96</v>
       </c>
       <c r="Q132" s="6">
-        <v>145.946645299145</v>
+        <v>145.94664529914499</v>
       </c>
       <c r="R132" s="6">
         <v>177.29</v>
       </c>
       <c r="S132" s="7"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:19" ht="60" x14ac:dyDescent="0.15">
       <c r="A133" s="4" t="s">
         <v>104</v>
       </c>
@@ -8034,7 +8353,7 @@
         <v>11.1849300699301</v>
       </c>
       <c r="L133" s="6">
-        <v>29.0302411105857</v>
+        <v>29.030241110585699</v>
       </c>
       <c r="M133" s="6">
         <v>0</v>
@@ -8046,10 +8365,10 @@
         <v>0</v>
       </c>
       <c r="P133" s="6">
-        <v>70.1600652173913</v>
+        <v>70.160065217391306</v>
       </c>
       <c r="Q133" s="6">
-        <v>86.9513913043477</v>
+        <v>86.951391304347695</v>
       </c>
       <c r="R133" s="6">
         <v>138.638934782609</v>
@@ -8058,7 +8377,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:19" ht="60" x14ac:dyDescent="0.15">
       <c r="A134" s="4" t="s">
         <v>104</v>
       </c>
@@ -8090,10 +8409,10 @@
         <v>30</v>
       </c>
       <c r="K134" s="6">
-        <v>10.5058896797153</v>
+        <v>10.505889679715301</v>
       </c>
       <c r="L134" s="6">
-        <v>43.7774011121516</v>
+        <v>43.777401112151601</v>
       </c>
       <c r="M134" s="6">
         <v>0</v>
@@ -8105,19 +8424,19 @@
         <v>0</v>
       </c>
       <c r="P134" s="6">
-        <v>87.5104583333333</v>
+        <v>87.510458333333304</v>
       </c>
       <c r="Q134" s="6">
-        <v>121.53615</v>
+        <v>121.53615000000001</v>
       </c>
       <c r="R134" s="6">
-        <v>192.549999999999</v>
+        <v>192.54999999999899</v>
       </c>
       <c r="S134" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:19" ht="60" x14ac:dyDescent="0.15">
       <c r="A135" s="4" t="s">
         <v>108</v>
       </c>
@@ -8152,7 +8471,7 @@
         <v>2.73906532024793</v>
       </c>
       <c r="L135" s="6">
-        <v>12.6088404153875</v>
+        <v>12.608840415387499</v>
       </c>
       <c r="M135" s="6">
         <v>0</v>
@@ -8164,17 +8483,17 @@
         <v>0</v>
       </c>
       <c r="P135" s="6">
-        <v>21.8284644827586</v>
+        <v>21.828464482758601</v>
       </c>
       <c r="Q135" s="6">
-        <v>45.2319034482758</v>
+        <v>45.231903448275801</v>
       </c>
       <c r="R135" s="6">
-        <v>69.7069976551722</v>
+        <v>69.706997655172202</v>
       </c>
       <c r="S135" s="7"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:19" ht="60" x14ac:dyDescent="0.15">
       <c r="A136" s="4" t="s">
         <v>108</v>
       </c>
@@ -8206,7 +8525,7 @@
         <v>47</v>
       </c>
       <c r="K136" s="6">
-        <v>8.8182105974026</v>
+        <v>8.8182105974026008</v>
       </c>
       <c r="L136" s="6">
         <v>30.5992957436215</v>
@@ -8221,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="P136" s="6">
-        <v>65.9769680851064</v>
+        <v>65.976968085106407</v>
       </c>
       <c r="Q136" s="6">
         <v>100</v>
@@ -8231,7 +8550,7 @@
       </c>
       <c r="S136" s="7"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:19" ht="60" x14ac:dyDescent="0.15">
       <c r="A137" s="4" t="s">
         <v>108</v>
       </c>
@@ -8263,7 +8582,7 @@
         <v>65</v>
       </c>
       <c r="K137" s="6">
-        <v>8.89216117777778</v>
+        <v>8.8921611777777798</v>
       </c>
       <c r="L137" s="6">
         <v>27.4382815617241</v>
@@ -8278,17 +8597,17 @@
         <v>0</v>
       </c>
       <c r="P137" s="6">
-        <v>65.8928269230769</v>
+        <v>65.892826923076896</v>
       </c>
       <c r="Q137" s="6">
         <v>100</v>
       </c>
       <c r="R137" s="6">
-        <v>137.683526923077</v>
+        <v>137.68352692307701</v>
       </c>
       <c r="S137" s="7"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:19" ht="60" x14ac:dyDescent="0.15">
       <c r="A138" s="4" t="s">
         <v>108</v>
       </c>
@@ -8320,10 +8639,10 @@
         <v>1</v>
       </c>
       <c r="K138" s="6">
-        <v>1.51032653061224E-02</v>
+        <v>1.5103265306122399E-2</v>
       </c>
       <c r="L138" s="6">
-        <v>0.25896705414916</v>
+        <v>0.25896705414915999</v>
       </c>
       <c r="M138" s="6">
         <v>0</v>
@@ -8347,7 +8666,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:19" ht="60" x14ac:dyDescent="0.15">
       <c r="A139" s="4" t="s">
         <v>108</v>
       </c>
@@ -8379,10 +8698,10 @@
         <v>15</v>
       </c>
       <c r="K139" s="6">
-        <v>0.691299314868805</v>
+        <v>0.69129931486880503</v>
       </c>
       <c r="L139" s="6">
-        <v>3.65845419092752</v>
+        <v>3.6584541909275199</v>
       </c>
       <c r="M139" s="6">
         <v>0</v>
@@ -8397,14 +8716,14 @@
         <v>0</v>
       </c>
       <c r="Q139" s="6">
-        <v>13.3205460333333</v>
+        <v>13.320546033333301</v>
       </c>
       <c r="R139" s="6">
-        <v>21.75852024</v>
+        <v>21.758520239999999</v>
       </c>
       <c r="S139" s="7"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:19" ht="72" x14ac:dyDescent="0.15">
       <c r="A140" s="4" t="s">
         <v>110</v>
       </c>
@@ -8461,7 +8780,7 @@
       </c>
       <c r="S140" s="7"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:19" ht="84" x14ac:dyDescent="0.15">
       <c r="A141" s="4" t="s">
         <v>110</v>
       </c>
@@ -8493,7 +8812,7 @@
         <v>2</v>
       </c>
       <c r="K141" s="6">
-        <v>8.14663951120163E-03</v>
+        <v>8.1466395112016303E-3</v>
       </c>
       <c r="L141" s="6">
         <v>0.255911415132833</v>
@@ -8518,7 +8837,7 @@
       </c>
       <c r="S141" s="7"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:19" ht="84" x14ac:dyDescent="0.15">
       <c r="A142" s="4" t="s">
         <v>110</v>
       </c>
@@ -8550,10 +8869,10 @@
         <v>5</v>
       </c>
       <c r="K142" s="6">
-        <v>7.34265734265734E-02</v>
+        <v>7.3426573426573397E-2</v>
       </c>
       <c r="L142" s="6">
-        <v>1.30732185009172</v>
+        <v>1.3073218500917201</v>
       </c>
       <c r="M142" s="6">
         <v>0</v>
@@ -8575,7 +8894,7 @@
       </c>
       <c r="S142" s="7"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:19" ht="84" x14ac:dyDescent="0.15">
       <c r="A143" s="4" t="s">
         <v>110</v>
       </c>
@@ -8607,10 +8926,10 @@
         <v>1</v>
       </c>
       <c r="K143" s="6">
-        <v>5.93220338983051E-02</v>
+        <v>5.93220338983051E-2</v>
       </c>
       <c r="L143" s="6">
-        <v>1.01888939204427</v>
+        <v>1.0188893920442701</v>
       </c>
       <c r="M143" s="6">
         <v>0</v>
@@ -8634,7 +8953,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:19" ht="84" x14ac:dyDescent="0.15">
       <c r="A144" s="4" t="s">
         <v>110</v>
       </c>
@@ -8669,7 +8988,7 @@
         <v>0.243055555555556</v>
       </c>
       <c r="L144" s="6">
-        <v>2.06239477846076</v>
+        <v>2.0623947784607601</v>
       </c>
       <c r="M144" s="6">
         <v>0</v>
@@ -8693,7 +9012,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:19" ht="48" x14ac:dyDescent="0.15">
       <c r="A145" s="4" t="s">
         <v>110</v>
       </c>
@@ -8725,10 +9044,10 @@
         <v>2</v>
       </c>
       <c r="K145" s="6">
-        <v>1.64701803051318E-02</v>
+        <v>1.6470180305131799E-2</v>
       </c>
       <c r="L145" s="6">
-        <v>0.691975627688667</v>
+        <v>0.69197562768866705</v>
       </c>
       <c r="M145" s="6">
         <v>0</v>
@@ -8750,7 +9069,7 @@
       </c>
       <c r="S145" s="7"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:19" ht="48" x14ac:dyDescent="0.15">
       <c r="A146" s="4" t="s">
         <v>115</v>
       </c>
@@ -8782,10 +9101,10 @@
         <v>2</v>
       </c>
       <c r="K146" s="6">
-        <v>6.96055684454756E-03</v>
+        <v>6.96055684454756E-3</v>
       </c>
       <c r="L146" s="6">
-        <v>0.212486077982066</v>
+        <v>0.21248607798206601</v>
       </c>
       <c r="M146" s="6">
         <v>0</v>
@@ -8807,7 +9126,7 @@
       </c>
       <c r="S146" s="7"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:19" ht="60" x14ac:dyDescent="0.15">
       <c r="A147" s="4" t="s">
         <v>115</v>
       </c>
@@ -8839,10 +9158,10 @@
         <v>3</v>
       </c>
       <c r="K147" s="6">
-        <v>4.83807266982622E-02</v>
+        <v>4.8380726698262197E-2</v>
       </c>
       <c r="L147" s="6">
-        <v>1.06083686127366</v>
+        <v>1.0608368612736601</v>
       </c>
       <c r="M147" s="6">
         <v>0</v>
@@ -8864,7 +9183,7 @@
       </c>
       <c r="S147" s="7"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:19" ht="60" x14ac:dyDescent="0.15">
       <c r="A148" s="4" t="s">
         <v>115</v>
       </c>
@@ -8896,10 +9215,10 @@
         <v>1</v>
       </c>
       <c r="K148" s="6">
-        <v>4.05405405405405E-02</v>
+        <v>4.0540540540540501E-2</v>
       </c>
       <c r="L148" s="6">
-        <v>0.551410966570356</v>
+        <v>0.55141096657035604</v>
       </c>
       <c r="M148" s="6">
         <v>0</v>
@@ -8923,7 +9242,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:19" ht="84" x14ac:dyDescent="0.15">
       <c r="A149" s="4" t="s">
         <v>115</v>
       </c>
@@ -8955,10 +9274,10 @@
         <v>1</v>
       </c>
       <c r="K149" s="6">
-        <v>7.19178082191781E-03</v>
+        <v>7.1917808219178099E-3</v>
       </c>
       <c r="L149" s="6">
-        <v>0.260695854909746</v>
+        <v>0.26069585490974601</v>
       </c>
       <c r="M149" s="6">
         <v>0</v>
@@ -8981,5 +9300,7 @@
       <c r="S149" s="7"/>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B149" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>